--- a/data/best_results_my_mape.xlsx
+++ b/data/best_results_my_mape.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>&gt;= 70%</t>
+          <t>&gt;= 90%</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
         <v>0.86</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -960,7 +960,7 @@
         <v>0.78</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1623,7 +1623,7 @@
         <v>0.86</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2388,7 +2388,7 @@
         <v>0.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4122,7 +4122,7 @@
         <v>0.77</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">

--- a/data/best_results_my_mape.xlsx
+++ b/data/best_results_my_mape.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,22 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
@@ -511,45 +511,45 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21477641.43861939</v>
+        <v>18615337.18896891</v>
       </c>
       <c r="C2" t="n">
-        <v>20974956.91623303</v>
+        <v>18710368.74246671</v>
       </c>
       <c r="D2" t="n">
-        <v>18729134.36894753</v>
+        <v>18800162.82715313</v>
       </c>
       <c r="E2" t="n">
-        <v>19821334.86275574</v>
+        <v>18885040.83812575</v>
       </c>
       <c r="F2" t="n">
-        <v>20255169.84716017</v>
+        <v>18965304.54741839</v>
       </c>
       <c r="G2" t="n">
-        <v>19752485.32477381</v>
+        <v>19041237.02453608</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>118472936</v>
+        <v>113348157</v>
       </c>
       <c r="J2" t="n">
-        <v>121010722.7584897</v>
+        <v>113017451.168669</v>
       </c>
       <c r="K2" t="n">
-        <v>2537786.758489668</v>
+        <v>330705.8313310444</v>
       </c>
       <c r="L2" t="n">
-        <v>1534676.38</v>
+        <v>1963386.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -562,45 +562,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11234693.94297307</v>
+        <v>9708070.462423606</v>
       </c>
       <c r="C3" t="n">
-        <v>11740964.08919214</v>
+        <v>10508136.14677363</v>
       </c>
       <c r="D3" t="n">
-        <v>12199286.25255322</v>
+        <v>11264875.77627091</v>
       </c>
       <c r="E3" t="n">
-        <v>12612865.0712292</v>
+        <v>11930730.59273292</v>
       </c>
       <c r="F3" t="n">
-        <v>12989380.88231587</v>
+        <v>13566586.90620976</v>
       </c>
       <c r="G3" t="n">
-        <v>13325849.27279802</v>
+        <v>12682486.85908413</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>72053737</v>
+        <v>74442330</v>
       </c>
       <c r="J3" t="n">
-        <v>74103039.51106152</v>
+        <v>69660886.74349496</v>
       </c>
       <c r="K3" t="n">
-        <v>2049302.511061519</v>
+        <v>4781443.256505042</v>
       </c>
       <c r="L3" t="n">
-        <v>1970511.04</v>
+        <v>2256802.46</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -609,49 +609,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4586458.420616893</v>
+        <v>15282448.05115925</v>
       </c>
       <c r="C4" t="n">
-        <v>2839873.82279714</v>
+        <v>20109963.05310323</v>
       </c>
       <c r="D4" t="n">
-        <v>6050448.19688198</v>
+        <v>24512375.06422014</v>
       </c>
       <c r="E4" t="n">
-        <v>6804200.491742427</v>
+        <v>28667436.1838647</v>
       </c>
       <c r="F4" t="n">
-        <v>6406258.514634762</v>
+        <v>33116157.56666174</v>
       </c>
       <c r="G4" t="n">
-        <v>6753472.8437912</v>
+        <v>36727960.28294577</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>96269111</v>
+        <v>210844148</v>
       </c>
       <c r="J4" t="n">
-        <v>33440712.2904644</v>
+        <v>158416340.2019548</v>
       </c>
       <c r="K4" t="n">
-        <v>62828398.7095356</v>
+        <v>52427807.79804516</v>
       </c>
       <c r="L4" t="n">
-        <v>10471399.78</v>
+        <v>8737967.970000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="n">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -660,196 +660,196 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4464425.188128817</v>
+        <v>22643559.22901293</v>
       </c>
       <c r="C5" t="n">
-        <v>6642973.856779462</v>
+        <v>25245590.82205776</v>
       </c>
       <c r="D5" t="n">
-        <v>8844634.378324114</v>
+        <v>25073599.71943979</v>
       </c>
       <c r="E5" t="n">
-        <v>11053211.6836472</v>
+        <v>29643319.76803613</v>
       </c>
       <c r="F5" t="n">
-        <v>13263915.21990572</v>
+        <v>53883183.65359294</v>
       </c>
       <c r="G5" t="n">
-        <v>15475150.33031067</v>
+        <v>6997740.642530772</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdditMul</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>69787893</v>
+        <v>161806077</v>
       </c>
       <c r="J5" t="n">
-        <v>59744310.65709598</v>
+        <v>163486993.8346703</v>
       </c>
       <c r="K5" t="n">
-        <v>10043582.34290402</v>
+        <v>1680916.834670305</v>
       </c>
       <c r="L5" t="n">
-        <v>2018623.53</v>
+        <v>1260862.57</v>
       </c>
       <c r="M5" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5969337.694919987</v>
+        <v>1912853.586390682</v>
       </c>
       <c r="C6" t="n">
-        <v>6675112.174580711</v>
+        <v>1734694.378721698</v>
       </c>
       <c r="D6" t="n">
-        <v>7495954.290865256</v>
+        <v>1569145.771689503</v>
       </c>
       <c r="E6" t="n">
-        <v>7698141.562017305</v>
+        <v>1416024.089032973</v>
       </c>
       <c r="F6" t="n">
-        <v>10593930.01184096</v>
+        <v>1274991.643535888</v>
       </c>
       <c r="G6" t="n">
-        <v>33542289.87574734</v>
+        <v>1145593.651765401</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_211</t>
+          <t>Прогнозы_GP_Matern</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>72589110</v>
+        <v>4117148</v>
       </c>
       <c r="J6" t="n">
-        <v>71974765.60997157</v>
+        <v>9053303.121136146</v>
       </c>
       <c r="K6" t="n">
-        <v>614344.390028432</v>
+        <v>4936155.121136146</v>
       </c>
       <c r="L6" t="n">
-        <v>5159825.36</v>
+        <v>916115.64</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01</v>
+        <v>1.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.99</v>
+        <v>-0.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2572496.495464082</v>
+        <v>8451300.527962346</v>
       </c>
       <c r="C7" t="n">
-        <v>3541823.805529056</v>
+        <v>8497392.357581565</v>
       </c>
       <c r="D7" t="n">
-        <v>1895277.754426686</v>
+        <v>8965745.224729015</v>
       </c>
       <c r="E7" t="n">
-        <v>3589191.077091899</v>
+        <v>9211559.291227285</v>
       </c>
       <c r="F7" t="n">
-        <v>2929360.108360928</v>
+        <v>9164823.41829079</v>
       </c>
       <c r="G7" t="n">
-        <v>3898687.418425903</v>
+        <v>9210915.24791001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18518039</v>
+        <v>60259530</v>
       </c>
       <c r="J7" t="n">
-        <v>18426836.65929855</v>
+        <v>53501736.06770101</v>
       </c>
       <c r="K7" t="n">
-        <v>91202.34070144594</v>
+        <v>6757793.932298988</v>
       </c>
       <c r="L7" t="n">
-        <v>733069.49</v>
+        <v>1850571.79</v>
       </c>
       <c r="M7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754857.3787257</v>
+        <v>18112021.55923866</v>
       </c>
       <c r="C8" t="n">
-        <v>1733370.27183932</v>
+        <v>21888875.58195828</v>
       </c>
       <c r="D8" t="n">
-        <v>1424540.659929928</v>
+        <v>21442839.07263443</v>
       </c>
       <c r="E8" t="n">
-        <v>1456028.710581576</v>
+        <v>17424443.70293033</v>
       </c>
       <c r="F8" t="n">
-        <v>1886686.390741276</v>
+        <v>19627347.25207026</v>
       </c>
       <c r="G8" t="n">
-        <v>1865199.283854896</v>
+        <v>19242451.72714481</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10119041</v>
+        <v>117732850</v>
       </c>
       <c r="J8" t="n">
-        <v>10120682.6956727</v>
+        <v>117737978.8959768</v>
       </c>
       <c r="K8" t="n">
-        <v>1641.695672696456</v>
+        <v>5128.895976766944</v>
       </c>
       <c r="L8" t="n">
-        <v>363587.28</v>
+        <v>3159638.31</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -864,49 +864,49 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4553583.656874868</v>
+        <v>28687728.53422228</v>
       </c>
       <c r="C9" t="n">
-        <v>3360607.780285045</v>
+        <v>27841488.67343732</v>
       </c>
       <c r="D9" t="n">
-        <v>5279546.532677375</v>
+        <v>28351142.88143919</v>
       </c>
       <c r="E9" t="n">
-        <v>4086609.473554453</v>
+        <v>29091391.62209728</v>
       </c>
       <c r="F9" t="n">
-        <v>6005508.577804928</v>
+        <v>38019163.34646554</v>
       </c>
       <c r="G9" t="n">
-        <v>4812609.416752987</v>
+        <v>28399658.38284485</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29731137</v>
+        <v>182190932</v>
       </c>
       <c r="J9" t="n">
-        <v>28098465.43794965</v>
+        <v>180390573.4405065</v>
       </c>
       <c r="K9" t="n">
-        <v>1632671.562050346</v>
+        <v>1800358.559493542</v>
       </c>
       <c r="L9" t="n">
-        <v>1895716.11</v>
+        <v>5265334.89</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -915,49 +915,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4316816.033469514</v>
+        <v>10688746.55718227</v>
       </c>
       <c r="C10" t="n">
-        <v>5698023.505737542</v>
+        <v>10473030.28319589</v>
       </c>
       <c r="D10" t="n">
-        <v>6188551.139050338</v>
+        <v>10431405.56374625</v>
       </c>
       <c r="E10" t="n">
-        <v>4564146.041609939</v>
+        <v>9730637.438629823</v>
       </c>
       <c r="F10" t="n">
-        <v>5637812.273897119</v>
+        <v>10232850.35457295</v>
       </c>
       <c r="G10" t="n">
-        <v>10546755.93858447</v>
+        <v>7471177.588126277</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulMul</t>
+          <t>прогнозы_SARIMA_211</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>47675060</v>
+        <v>109264489</v>
       </c>
       <c r="J10" t="n">
-        <v>36952104.93234892</v>
+        <v>59027847.78545346</v>
       </c>
       <c r="K10" t="n">
-        <v>10722955.06765108</v>
+        <v>50236641.21454654</v>
       </c>
       <c r="L10" t="n">
-        <v>1885381.73</v>
+        <v>8372773.54</v>
       </c>
       <c r="M10" t="n">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="N10" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -966,100 +966,100 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>15866452.37148222</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16383677.86444868</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16890402.31704768</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17386608.2529094</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17872785.15949804</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18349906.47671718</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Прогнозы_ETS_EA12dt</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>102673839</v>
+      </c>
+      <c r="J11" t="n">
+        <v>102749832.4421032</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75993.44210320711</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1681571.33</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Matern</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1393942</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1393942</v>
-      </c>
-      <c r="L11" t="n">
-        <v>232323.67</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681847.5407844465</v>
+        <v>41320529.9704909</v>
       </c>
       <c r="C12" t="n">
-        <v>330676.9882390939</v>
+        <v>46800175.41062579</v>
       </c>
       <c r="D12" t="n">
-        <v>174707.7471783668</v>
+        <v>49895861.26929149</v>
       </c>
       <c r="E12" t="n">
-        <v>380728.0026975149</v>
+        <v>48808688.48998812</v>
       </c>
       <c r="F12" t="n">
-        <v>683146.4552841119</v>
+        <v>40335400.34851107</v>
       </c>
       <c r="G12" t="n">
-        <v>331832.2765393502</v>
+        <v>38574336.30708861</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_Holt-Winters_AdditMul</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2519974</v>
+        <v>264637901</v>
       </c>
       <c r="J12" t="n">
-        <v>2582939.010722884</v>
+        <v>265734991.795996</v>
       </c>
       <c r="K12" t="n">
-        <v>62965.01072288444</v>
+        <v>1097090.795995981</v>
       </c>
       <c r="L12" t="n">
-        <v>254886.98</v>
+        <v>4761647.08</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1068,49 +1068,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2585287.562239221</v>
+        <v>40612901.94384171</v>
       </c>
       <c r="C13" t="n">
-        <v>1738249.098436167</v>
+        <v>37516879.90408421</v>
       </c>
       <c r="D13" t="n">
-        <v>2002257.731183122</v>
+        <v>41823088.09744018</v>
       </c>
       <c r="E13" t="n">
-        <v>2399065.240082019</v>
+        <v>39707552.18765359</v>
       </c>
       <c r="F13" t="n">
-        <v>1961680.858896957</v>
+        <v>41132823.76845239</v>
       </c>
       <c r="G13" t="n">
-        <v>2152410.682727916</v>
+        <v>38036801.72869489</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13925925</v>
+        <v>238480000</v>
       </c>
       <c r="J13" t="n">
-        <v>12838951.1735654</v>
+        <v>238830047.630167</v>
       </c>
       <c r="K13" t="n">
-        <v>1086973.826434597</v>
+        <v>350047.6301669776</v>
       </c>
       <c r="L13" t="n">
-        <v>580788.1899999999</v>
+        <v>6322514.23</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1119,100 +1119,100 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78689.18430812226</v>
+        <v>862635.1834189612</v>
       </c>
       <c r="C14" t="n">
-        <v>70646.78153659734</v>
+        <v>834544.1527105104</v>
       </c>
       <c r="D14" t="n">
-        <v>83052.65434885908</v>
+        <v>778972.3363206554</v>
       </c>
       <c r="E14" t="n">
-        <v>236626.5363245049</v>
+        <v>715893.9986488298</v>
       </c>
       <c r="F14" t="n">
-        <v>89664.15698659919</v>
+        <v>657361.6255102102</v>
       </c>
       <c r="G14" t="n">
-        <v>171137.1593915063</v>
+        <v>608953.7713369466</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>686108</v>
+        <v>5950327</v>
       </c>
       <c r="J14" t="n">
-        <v>729816.4728961892</v>
+        <v>4458361.067946114</v>
       </c>
       <c r="K14" t="n">
-        <v>43708.4728961892</v>
+        <v>1491965.932053886</v>
       </c>
       <c r="L14" t="n">
-        <v>110961.31</v>
+        <v>353721.69</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1283884.783721082</v>
+        <v>5314338.368086373</v>
       </c>
       <c r="C15" t="n">
-        <v>684618.1195837633</v>
+        <v>4661818.490493233</v>
       </c>
       <c r="D15" t="n">
-        <v>679345.3433504335</v>
+        <v>4174219.163674736</v>
       </c>
       <c r="E15" t="n">
-        <v>743745.1268239005</v>
+        <v>5441075.402148937</v>
       </c>
       <c r="F15" t="n">
-        <v>686570.7772759985</v>
+        <v>4730386.620342702</v>
       </c>
       <c r="G15" t="n">
-        <v>929156.7482807771</v>
+        <v>3996363.91894201</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>прогнозы_SARIMA_211</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5265255</v>
+        <v>27766919</v>
       </c>
       <c r="J15" t="n">
-        <v>5007320.899035955</v>
+        <v>28318201.96368799</v>
       </c>
       <c r="K15" t="n">
-        <v>257934.1009640452</v>
+        <v>551282.9636879936</v>
       </c>
       <c r="L15" t="n">
-        <v>417620.91</v>
+        <v>781148.9300000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N15" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -1221,49 +1221,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1384288.741332796</v>
+        <v>10032196.42976636</v>
       </c>
       <c r="C16" t="n">
-        <v>1166777.467062362</v>
+        <v>10245690.74037299</v>
       </c>
       <c r="D16" t="n">
-        <v>1203530.387821021</v>
+        <v>10459184.60507381</v>
       </c>
       <c r="E16" t="n">
-        <v>1243058.734010643</v>
+        <v>10672678.02453259</v>
       </c>
       <c r="F16" t="n">
-        <v>1142796.489643533</v>
+        <v>10886170.99941239</v>
       </c>
       <c r="G16" t="n">
-        <v>2005633.393320522</v>
+        <v>11099663.53037515</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8311567</v>
+        <v>63372422</v>
       </c>
       <c r="J16" t="n">
-        <v>8146085.213190877</v>
+        <v>63395584.32953329</v>
       </c>
       <c r="K16" t="n">
-        <v>165481.7868091231</v>
+        <v>23162.32953329384</v>
       </c>
       <c r="L16" t="n">
-        <v>249459.81</v>
+        <v>1526827.46</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -1272,49 +1272,49 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5313978.308119775</v>
+        <v>4874034.837053376</v>
       </c>
       <c r="C17" t="n">
-        <v>5281603.414019615</v>
+        <v>5539572.797390155</v>
       </c>
       <c r="D17" t="n">
-        <v>5199501.405485355</v>
+        <v>5663393.04547444</v>
       </c>
       <c r="E17" t="n">
-        <v>4510588.05072409</v>
+        <v>6015473.926282665</v>
       </c>
       <c r="F17" t="n">
-        <v>4357390.04779261</v>
+        <v>5455120.527196809</v>
       </c>
       <c r="G17" t="n">
-        <v>3981957.513121074</v>
+        <v>4772702.622733676</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_ETS_HA12dt</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26862035</v>
+        <v>32092573</v>
       </c>
       <c r="J17" t="n">
-        <v>28645018.73926252</v>
+        <v>32320297.75613112</v>
       </c>
       <c r="K17" t="n">
-        <v>1782983.739262521</v>
+        <v>227724.75613112</v>
       </c>
       <c r="L17" t="n">
-        <v>1464865.79</v>
+        <v>1331402.99</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1323,202 +1323,202 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.437715491375226e-304</v>
+        <v>3229410.500204269</v>
       </c>
       <c r="C18" t="n">
-        <v>6.571834564112209e-304</v>
+        <v>3232102.886622887</v>
       </c>
       <c r="D18" t="n">
-        <v>6.705953636849194e-304</v>
+        <v>3234584.323986109</v>
       </c>
       <c r="E18" t="n">
-        <v>6.840072709586177e-304</v>
+        <v>3236874.620560516</v>
       </c>
       <c r="F18" t="n">
-        <v>6.974191782323161e-304</v>
+        <v>3238991.448067334</v>
       </c>
       <c r="G18" t="n">
-        <v>7.108310855060145e-304</v>
+        <v>3240950.59484008</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>прогнозы_GP_Neural1</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2313925</v>
+        <v>19373177</v>
       </c>
       <c r="J18" t="n">
-        <v>4.063807903930611e-303</v>
+        <v>19412914.37428119</v>
       </c>
       <c r="K18" t="n">
-        <v>2313925</v>
+        <v>39737.37428119406</v>
       </c>
       <c r="L18" t="n">
-        <v>385654.17</v>
+        <v>489158.67</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38638.16400955453</v>
+        <v>7026063.394260041</v>
       </c>
       <c r="C19" t="n">
-        <v>-3960.299323765645</v>
+        <v>4787144.101651588</v>
       </c>
       <c r="D19" t="n">
-        <v>80871.42505278086</v>
+        <v>6638522.461567434</v>
       </c>
       <c r="E19" t="n">
-        <v>-27056.1084646889</v>
+        <v>5208183.686047717</v>
       </c>
       <c r="F19" t="n">
-        <v>11837.80253371939</v>
+        <v>6413143.624273318</v>
       </c>
       <c r="G19" t="n">
-        <v>-30760.66079960079</v>
+        <v>3439890.78916939</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_HA12</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>73038</v>
+        <v>38544759</v>
       </c>
       <c r="J19" t="n">
-        <v>69570.32300799945</v>
+        <v>33512948.05696949</v>
       </c>
       <c r="K19" t="n">
-        <v>3467.676992000546</v>
+        <v>5031810.94303051</v>
       </c>
       <c r="L19" t="n">
-        <v>44360.41</v>
+        <v>1335100.7</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="N19" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2148011.251172865</v>
+        <v>3009991.579997246</v>
       </c>
       <c r="C20" t="n">
-        <v>2446011.050606201</v>
+        <v>729572.5585438872</v>
       </c>
       <c r="D20" t="n">
-        <v>2849687.88422189</v>
+        <v>1213672.256597089</v>
       </c>
       <c r="E20" t="n">
-        <v>2453030.247349976</v>
+        <v>1124185.259964288</v>
       </c>
       <c r="F20" t="n">
-        <v>2620346.580084333</v>
+        <v>504220.899381131</v>
       </c>
       <c r="G20" t="n">
-        <v>3307666.758523627</v>
+        <v>1040859.092489602</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_GP_Ex_Per</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15439800</v>
+        <v>9296247</v>
       </c>
       <c r="J20" t="n">
-        <v>15824753.77195889</v>
+        <v>7622501.646973244</v>
       </c>
       <c r="K20" t="n">
-        <v>384953.7719588913</v>
+        <v>1673745.353026756</v>
       </c>
       <c r="L20" t="n">
-        <v>559648.12</v>
+        <v>950085.78</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="N20" t="n">
-        <v>0.98</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1337206.264224063</v>
+        <v>3267339.317771256</v>
       </c>
       <c r="C21" t="n">
-        <v>1359827.482152753</v>
+        <v>3252793.976149142</v>
       </c>
       <c r="D21" t="n">
-        <v>1311916.722264605</v>
+        <v>3261306.789020181</v>
       </c>
       <c r="E21" t="n">
-        <v>1588249.438678669</v>
+        <v>3327364.856396586</v>
       </c>
       <c r="F21" t="n">
-        <v>1374183.378918851</v>
+        <v>3339894.394280106</v>
       </c>
       <c r="G21" t="n">
-        <v>1396804.596847541</v>
+        <v>3373918.509681016</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_GP_Combo_1</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8356092</v>
+        <v>20931512</v>
       </c>
       <c r="J21" t="n">
-        <v>8368187.883086482</v>
+        <v>19822617.84329829</v>
       </c>
       <c r="K21" t="n">
-        <v>12095.88308648206</v>
+        <v>1108894.156701714</v>
       </c>
       <c r="L21" t="n">
-        <v>169473.18</v>
+        <v>1318950.78</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -1527,49 +1527,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339750.3082201824</v>
+        <v>11920400.45794958</v>
       </c>
       <c r="C22" t="n">
-        <v>308660.131781369</v>
+        <v>11243555.26046232</v>
       </c>
       <c r="D22" t="n">
-        <v>287005.1840291541</v>
+        <v>13181110.77960308</v>
       </c>
       <c r="E22" t="n">
-        <v>271922.06724228</v>
+        <v>12178810.19686442</v>
       </c>
       <c r="F22" t="n">
-        <v>261416.3659767011</v>
+        <v>12832643.28848567</v>
       </c>
       <c r="G22" t="n">
-        <v>254098.9288288543</v>
+        <v>12155798.09099841</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Ex_Per</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1646161</v>
+        <v>74095502</v>
       </c>
       <c r="J22" t="n">
-        <v>1722852.986078541</v>
+        <v>73512318.07436347</v>
       </c>
       <c r="K22" t="n">
-        <v>76691.98607854103</v>
+        <v>583183.9256365299</v>
       </c>
       <c r="L22" t="n">
-        <v>107671.67</v>
+        <v>2462715.86</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -1578,100 +1578,100 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-49117.31840882693</v>
+        <v>9281572.719723416</v>
       </c>
       <c r="C23" t="n">
-        <v>-49118.40724065533</v>
+        <v>7117050.390859817</v>
       </c>
       <c r="D23" t="n">
-        <v>-49119.01845434491</v>
+        <v>7661004.569955904</v>
       </c>
       <c r="E23" t="n">
-        <v>-47979.73669107987</v>
+        <v>7661974.277767431</v>
       </c>
       <c r="F23" t="n">
-        <v>-41585.70510035835</v>
+        <v>6902227.754185541</v>
       </c>
       <c r="G23" t="n">
-        <v>247955.69799921</v>
+        <v>2853706.449589903</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
+          <t>прогнозы_STL</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12776</v>
+        <v>41611363</v>
       </c>
       <c r="J23" t="n">
-        <v>11035.51210394464</v>
+        <v>41477536.16208201</v>
       </c>
       <c r="K23" t="n">
-        <v>1740.487896055361</v>
+        <v>133826.837917991</v>
       </c>
       <c r="L23" t="n">
-        <v>78683.31</v>
+        <v>1340642.25</v>
       </c>
       <c r="M23" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13747764.91873514</v>
+        <v>8613737.756634064</v>
       </c>
       <c r="C24" t="n">
-        <v>11516545.04659513</v>
+        <v>10242451.23248725</v>
       </c>
       <c r="D24" t="n">
-        <v>12919869.71361177</v>
+        <v>9846102.802985189</v>
       </c>
       <c r="E24" t="n">
-        <v>11632602.8775952</v>
+        <v>10583583.6262642</v>
       </c>
       <c r="F24" t="n">
-        <v>12138113.90154254</v>
+        <v>13277198.79066879</v>
       </c>
       <c r="G24" t="n">
-        <v>14760449.99425362</v>
+        <v>8143108.72501513</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulAd</t>
+          <t>Прогнозы_ETS_HA12dt</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>76157750</v>
+        <v>60792346</v>
       </c>
       <c r="J24" t="n">
-        <v>76715346.45233341</v>
+        <v>60706182.93405463</v>
       </c>
       <c r="K24" t="n">
-        <v>557596.4523334056</v>
+        <v>86163.06594537199</v>
       </c>
       <c r="L24" t="n">
-        <v>1958001.8</v>
+        <v>1005548.04</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -1680,49 +1680,49 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2544878.662873288</v>
+        <v>4437523.650204765</v>
       </c>
       <c r="C25" t="n">
-        <v>2647640.478729283</v>
+        <v>5766721.678700331</v>
       </c>
       <c r="D25" t="n">
-        <v>2375160.811772371</v>
+        <v>5727392.392928741</v>
       </c>
       <c r="E25" t="n">
-        <v>3343724.923726884</v>
+        <v>5145677.049488914</v>
       </c>
       <c r="F25" t="n">
-        <v>3221772.840295695</v>
+        <v>5823786.318433573</v>
       </c>
       <c r="G25" t="n">
-        <v>2951788.741457394</v>
+        <v>3862108.59864467</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12</t>
+          <t>Прогнозы_ETS_EA12dt</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17096491</v>
+        <v>31285643</v>
       </c>
       <c r="J25" t="n">
-        <v>17084966.45885492</v>
+        <v>30763209.68840099</v>
       </c>
       <c r="K25" t="n">
-        <v>11524.54114508256</v>
+        <v>522433.3115990087</v>
       </c>
       <c r="L25" t="n">
-        <v>280969.55</v>
+        <v>1053474.88</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
@@ -1731,49 +1731,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12345367.58547539</v>
+        <v>10401871.2080267</v>
       </c>
       <c r="C26" t="n">
-        <v>13151676.9564795</v>
+        <v>11710851.37663475</v>
       </c>
       <c r="D26" t="n">
-        <v>12300107.53126844</v>
+        <v>13340663.34019672</v>
       </c>
       <c r="E26" t="n">
-        <v>12784902.93602037</v>
+        <v>12969812.25645456</v>
       </c>
       <c r="F26" t="n">
-        <v>12799382.56336774</v>
+        <v>12654431.72380633</v>
       </c>
       <c r="G26" t="n">
-        <v>15052034.30360808</v>
+        <v>9224145.648508281</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulAd</t>
+          <t>Прогнозы_ProphetMul</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>76202380</v>
+        <v>70193278</v>
       </c>
       <c r="J26" t="n">
-        <v>78433471.87621951</v>
+        <v>70301775.55362734</v>
       </c>
       <c r="K26" t="n">
-        <v>2231091.876219511</v>
+        <v>108497.553627342</v>
       </c>
       <c r="L26" t="n">
-        <v>2429706.28</v>
+        <v>1006304.2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -1782,49 +1782,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14755755.44283827</v>
+        <v>4943157.855573899</v>
       </c>
       <c r="C27" t="n">
-        <v>15372953.63850103</v>
+        <v>3860640.779714483</v>
       </c>
       <c r="D27" t="n">
-        <v>15586055.21985455</v>
+        <v>4315435.735239149</v>
       </c>
       <c r="E27" t="n">
-        <v>15536974.09488597</v>
+        <v>4871367.706877192</v>
       </c>
       <c r="F27" t="n">
-        <v>16935214.82627547</v>
+        <v>4942989.468099609</v>
       </c>
       <c r="G27" t="n">
-        <v>30315900.21979469</v>
+        <v>3860505.74539308</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_ETS_EA4dt</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>111686061</v>
+        <v>26614642</v>
       </c>
       <c r="J27" t="n">
-        <v>108502853.44215</v>
+        <v>26794097.29089741</v>
       </c>
       <c r="K27" t="n">
-        <v>3183207.557850018</v>
+        <v>179455.2908974104</v>
       </c>
       <c r="L27" t="n">
-        <v>4163384.07</v>
+        <v>883338.4300000001</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -1833,49 +1833,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15580539.70126326</v>
+        <v>11537417.92731051</v>
       </c>
       <c r="C28" t="n">
-        <v>17351397.00625135</v>
+        <v>8787404.925916651</v>
       </c>
       <c r="D28" t="n">
-        <v>19121528.42595237</v>
+        <v>10460605.91176348</v>
       </c>
       <c r="E28" t="n">
-        <v>20892460.4001393</v>
+        <v>10775007.93666654</v>
       </c>
       <c r="F28" t="n">
-        <v>22663650.67399716</v>
+        <v>11784750.54943578</v>
       </c>
       <c r="G28" t="n">
-        <v>24434507.97898525</v>
+        <v>9034737.548041919</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>117806380</v>
+        <v>62488896</v>
       </c>
       <c r="J28" t="n">
-        <v>120044084.1865887</v>
+        <v>62379924.79913488</v>
       </c>
       <c r="K28" t="n">
-        <v>2237704.18658869</v>
+        <v>108971.2008651197</v>
       </c>
       <c r="L28" t="n">
-        <v>4402562.46</v>
+        <v>1521596.88</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -1884,49 +1884,49 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14742178.27483879</v>
+        <v>2180444.073494593</v>
       </c>
       <c r="C29" t="n">
-        <v>14812102.64248285</v>
+        <v>2161456.729552023</v>
       </c>
       <c r="D29" t="n">
-        <v>16342946.12452848</v>
+        <v>1906670.097952185</v>
       </c>
       <c r="E29" t="n">
-        <v>18371546.38994437</v>
+        <v>1935214.002422527</v>
       </c>
       <c r="F29" t="n">
-        <v>18084428.37414756</v>
+        <v>1769407.670695703</v>
       </c>
       <c r="G29" t="n">
-        <v>14459328.43139333</v>
+        <v>1905713.162620779</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>100186838</v>
+        <v>11901551</v>
       </c>
       <c r="J29" t="n">
-        <v>96812530.23733538</v>
+        <v>11858905.73673781</v>
       </c>
       <c r="K29" t="n">
-        <v>3374307.762664616</v>
+        <v>42645.26326218992</v>
       </c>
       <c r="L29" t="n">
-        <v>2260166.8</v>
+        <v>403395.2</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -1935,49 +1935,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45605194.61579294</v>
+        <v>549133.7820155643</v>
       </c>
       <c r="C30" t="n">
-        <v>42025821.17026596</v>
+        <v>531592.6009715752</v>
       </c>
       <c r="D30" t="n">
-        <v>42111017.9165177</v>
+        <v>514611.7442829532</v>
       </c>
       <c r="E30" t="n">
-        <v>46880457.49169322</v>
+        <v>498173.3133040803</v>
       </c>
       <c r="F30" t="n">
-        <v>48696575.00881989</v>
+        <v>482259.9811323163</v>
       </c>
       <c r="G30" t="n">
-        <v>45117201.56329291</v>
+        <v>466854.9743446026</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_GP_Combo_2</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>270390758</v>
+        <v>2867829</v>
       </c>
       <c r="J30" t="n">
-        <v>270436267.7663826</v>
+        <v>3042626.396051092</v>
       </c>
       <c r="K30" t="n">
-        <v>45509.76638263464</v>
+        <v>174797.3960510921</v>
       </c>
       <c r="L30" t="n">
-        <v>7191941.82</v>
+        <v>131942.71</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
@@ -1986,100 +1986,100 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40210435.50402168</v>
+        <v>913070.4451681972</v>
       </c>
       <c r="C31" t="n">
-        <v>43684186.64590711</v>
+        <v>932092.7461091876</v>
       </c>
       <c r="D31" t="n">
-        <v>42647382.21641525</v>
+        <v>951115.0470502004</v>
       </c>
       <c r="E31" t="n">
-        <v>46368574.92461184</v>
+        <v>970137.3479911983</v>
       </c>
       <c r="F31" t="n">
-        <v>40217285.70016181</v>
+        <v>989159.6489322037</v>
       </c>
       <c r="G31" t="n">
-        <v>38135900.45188387</v>
+        <v>1008181.949873209</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12</t>
+          <t>Прогнозы_GP_lin_Per</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>249779239</v>
+        <v>7067675</v>
       </c>
       <c r="J31" t="n">
-        <v>251263765.4430016</v>
+        <v>5763757.185124196</v>
       </c>
       <c r="K31" t="n">
-        <v>1484526.443001568</v>
+        <v>1303917.814875804</v>
       </c>
       <c r="L31" t="n">
-        <v>3558343.55</v>
+        <v>596330.16</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="N31" t="n">
-        <v>0.99</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>795306.0074019111</v>
+        <v>1626127.571178619</v>
       </c>
       <c r="C32" t="n">
-        <v>985114.5538482682</v>
+        <v>1636197.851659238</v>
       </c>
       <c r="D32" t="n">
-        <v>1174923.328593186</v>
+        <v>1645703.557525843</v>
       </c>
       <c r="E32" t="n">
-        <v>1364732.093974628</v>
+        <v>1654681.62518391</v>
       </c>
       <c r="F32" t="n">
-        <v>1554540.852581913</v>
+        <v>1663166.353046566</v>
       </c>
       <c r="G32" t="n">
-        <v>1744349.609786493</v>
+        <v>1671189.595253918</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>7688553</v>
+        <v>10330188</v>
       </c>
       <c r="J32" t="n">
-        <v>7618966.446186398</v>
+        <v>9897066.553848095</v>
       </c>
       <c r="K32" t="n">
-        <v>69586.55381360184</v>
+        <v>433121.4461519048</v>
       </c>
       <c r="L32" t="n">
-        <v>422804.37</v>
+        <v>223114.31</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N32" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -2088,43 +2088,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4270467.853696047</v>
+        <v>2549727.465552226</v>
       </c>
       <c r="C33" t="n">
-        <v>4508826.882076664</v>
+        <v>2610314.893382907</v>
       </c>
       <c r="D33" t="n">
-        <v>4006656.979641744</v>
+        <v>2670901.503870368</v>
       </c>
       <c r="E33" t="n">
-        <v>4053841.877754194</v>
+        <v>2731487.298294246</v>
       </c>
       <c r="F33" t="n">
-        <v>4450435.256038396</v>
+        <v>2792072.277932286</v>
       </c>
       <c r="G33" t="n">
-        <v>4685194.898785268</v>
+        <v>2852656.444060326</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4dt</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>26000166</v>
+        <v>16227852</v>
       </c>
       <c r="J33" t="n">
-        <v>25975423.74799231</v>
+        <v>16207159.88309236</v>
       </c>
       <c r="K33" t="n">
-        <v>24742.25200768933</v>
+        <v>20692.11690764129</v>
       </c>
       <c r="L33" t="n">
-        <v>918111.95</v>
+        <v>366796.92</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2139,43 +2139,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10107383.86775718</v>
+        <v>3656829.828461542</v>
       </c>
       <c r="C34" t="n">
-        <v>9402689.372613983</v>
+        <v>2475647.94705147</v>
       </c>
       <c r="D34" t="n">
-        <v>11897061.00395589</v>
+        <v>3878361.845963985</v>
       </c>
       <c r="E34" t="n">
-        <v>11441019.8681033</v>
+        <v>2839977.205360984</v>
       </c>
       <c r="F34" t="n">
-        <v>12713846.39293525</v>
+        <v>3567070.667674555</v>
       </c>
       <c r="G34" t="n">
-        <v>13246618.94520414</v>
+        <v>3026987.119404855</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12dt</t>
+          <t>Прогнозы_Holt-Winters_MulMul</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>68925277</v>
+        <v>19451556</v>
       </c>
       <c r="J34" t="n">
-        <v>68808619.45056973</v>
+        <v>19444874.61391739</v>
       </c>
       <c r="K34" t="n">
-        <v>116657.549430266</v>
+        <v>6681.386082608253</v>
       </c>
       <c r="L34" t="n">
-        <v>1179177.37</v>
+        <v>943298.05</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2190,49 +2190,49 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4554466.942713169</v>
+        <v>1477773.231262392</v>
       </c>
       <c r="C35" t="n">
-        <v>4910800.705440949</v>
+        <v>1556536.050144409</v>
       </c>
       <c r="D35" t="n">
-        <v>5747165.364082907</v>
+        <v>1625958.694058761</v>
       </c>
       <c r="E35" t="n">
-        <v>5772131.322606297</v>
+        <v>1443400.191383437</v>
       </c>
       <c r="F35" t="n">
-        <v>6328375.107730653</v>
+        <v>1436824.222319548</v>
       </c>
       <c r="G35" t="n">
-        <v>6008530.119867379</v>
+        <v>1349864.114268833</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_111</t>
+          <t>Прогнозы_ETS_EA12dt</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>33408267</v>
+        <v>9007734</v>
       </c>
       <c r="J35" t="n">
-        <v>33321469.56244136</v>
+        <v>8890356.503437381</v>
       </c>
       <c r="K35" t="n">
-        <v>86797.43755864352</v>
+        <v>117377.4965626188</v>
       </c>
       <c r="L35" t="n">
-        <v>1189556.17</v>
+        <v>308847.68</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
@@ -2241,100 +2241,100 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3199416.44933885</v>
+        <v>1011394.917034826</v>
       </c>
       <c r="C36" t="n">
-        <v>3198607.454741806</v>
+        <v>1011394.918475086</v>
       </c>
       <c r="D36" t="n">
-        <v>3197688.294666965</v>
+        <v>1011394.91929577</v>
       </c>
       <c r="E36" t="n">
-        <v>3196681.78709127</v>
+        <v>1011394.919495027</v>
       </c>
       <c r="F36" t="n">
-        <v>3195607.328738123</v>
+        <v>1011394.919072408</v>
       </c>
       <c r="G36" t="n">
-        <v>3194481.370355692</v>
+        <v>1011394.918028866</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_GP_Mater_Per</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>20078343</v>
+        <v>5439658</v>
       </c>
       <c r="J36" t="n">
-        <v>19182482.68493271</v>
+        <v>6068369.511401983</v>
       </c>
       <c r="K36" t="n">
-        <v>895860.315067295</v>
+        <v>628711.511401983</v>
       </c>
       <c r="L36" t="n">
-        <v>610718.23</v>
+        <v>245283.97</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7342057.592943256</v>
+        <v>3779126.384968692</v>
       </c>
       <c r="C37" t="n">
-        <v>6890576.6366953</v>
+        <v>3279065.254215763</v>
       </c>
       <c r="D37" t="n">
-        <v>4726471.403908338</v>
+        <v>3786860.409352179</v>
       </c>
       <c r="E37" t="n">
-        <v>6320374.543332225</v>
+        <v>4228675.964979684</v>
       </c>
       <c r="F37" t="n">
-        <v>5104911.677957995</v>
+        <v>3888507.967568848</v>
       </c>
       <c r="G37" t="n">
-        <v>5816963.546140945</v>
+        <v>3388446.836815919</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>36155913</v>
+        <v>22578976</v>
       </c>
       <c r="J37" t="n">
-        <v>36201355.40097807</v>
+        <v>22350682.81790109</v>
       </c>
       <c r="K37" t="n">
-        <v>45442.40097806603</v>
+        <v>228293.1820989139</v>
       </c>
       <c r="L37" t="n">
-        <v>1484147.31</v>
+        <v>720641.79</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -2343,100 +2343,100 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1809953.568589829</v>
+        <v>3966885.08497072</v>
       </c>
       <c r="C38" t="n">
-        <v>1502144.896339471</v>
+        <v>4024109.600961648</v>
       </c>
       <c r="D38" t="n">
-        <v>2496167.374660645</v>
+        <v>4081334.116952583</v>
       </c>
       <c r="E38" t="n">
-        <v>2844657.68954284</v>
+        <v>4138558.632943645</v>
       </c>
       <c r="F38" t="n">
-        <v>2578654.631803285</v>
+        <v>4195783.148934565</v>
       </c>
       <c r="G38" t="n">
-        <v>1224189.270079467</v>
+        <v>4253007.664925627</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_GP_lin_Per</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>10861407</v>
+        <v>26540442</v>
       </c>
       <c r="J38" t="n">
-        <v>12455767.43101554</v>
+        <v>24659678.24968879</v>
       </c>
       <c r="K38" t="n">
-        <v>1594360.431015538</v>
+        <v>1880763.750311211</v>
       </c>
       <c r="L38" t="n">
-        <v>383139.88</v>
+        <v>934998.42</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.85</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3827357.948976262</v>
+        <v>5132350.632852511</v>
       </c>
       <c r="C39" t="n">
-        <v>3966613.632658736</v>
+        <v>5143859.761010352</v>
       </c>
       <c r="D39" t="n">
-        <v>4096916.635948672</v>
+        <v>5580353.124955224</v>
       </c>
       <c r="E39" t="n">
-        <v>4314265.997412388</v>
+        <v>4657016.614684728</v>
       </c>
       <c r="F39" t="n">
-        <v>3854129.290408834</v>
+        <v>4604329.518341827</v>
       </c>
       <c r="G39" t="n">
-        <v>3992846.998346456</v>
+        <v>4239157.633082132</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_ETS_CA12dt</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22635991</v>
+        <v>29381475</v>
       </c>
       <c r="J39" t="n">
-        <v>24052130.50375135</v>
+        <v>29357067.28492678</v>
       </c>
       <c r="K39" t="n">
-        <v>1416139.503751349</v>
+        <v>24407.71507322416</v>
       </c>
       <c r="L39" t="n">
-        <v>1202254.63</v>
+        <v>568795.96</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>1</v>
@@ -2445,49 +2445,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11491582.39127935</v>
+        <v>4640981.639306828</v>
       </c>
       <c r="C40" t="n">
-        <v>11275027.11727284</v>
+        <v>4656939.573464841</v>
       </c>
       <c r="D40" t="n">
-        <v>12669942.42424707</v>
+        <v>4672019.206982382</v>
       </c>
       <c r="E40" t="n">
-        <v>14521108.77655631</v>
+        <v>4686273.743869953</v>
       </c>
       <c r="F40" t="n">
-        <v>13489719.61529359</v>
+        <v>4699753.161224701</v>
       </c>
       <c r="G40" t="n">
-        <v>13717791.88640334</v>
+        <v>4712504.369752653</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12dt</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>76669713</v>
+        <v>27488751</v>
       </c>
       <c r="J40" t="n">
-        <v>77165172.21105249</v>
+        <v>28068471.69460136</v>
       </c>
       <c r="K40" t="n">
-        <v>495459.2110524923</v>
+        <v>579720.694601357</v>
       </c>
       <c r="L40" t="n">
-        <v>1730057.52</v>
+        <v>331536.78</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N40" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
@@ -2496,49 +2496,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6976766.88627994</v>
+        <v>3232949.481322631</v>
       </c>
       <c r="C41" t="n">
-        <v>8641946.739679059</v>
+        <v>2846477.078774625</v>
       </c>
       <c r="D41" t="n">
-        <v>6760634.890535518</v>
+        <v>2853919.627753454</v>
       </c>
       <c r="E41" t="n">
-        <v>7273708.852380088</v>
+        <v>2854868.540959694</v>
       </c>
       <c r="F41" t="n">
-        <v>7028235.535730897</v>
+        <v>3270613.885109012</v>
       </c>
       <c r="G41" t="n">
-        <v>8693415.389130017</v>
+        <v>2876609.514453619</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_EA4dt</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>45566699</v>
+        <v>17765300</v>
       </c>
       <c r="J41" t="n">
-        <v>45374708.29373552</v>
+        <v>17935438.12837303</v>
       </c>
       <c r="K41" t="n">
-        <v>191990.7062644809</v>
+        <v>170138.1283730343</v>
       </c>
       <c r="L41" t="n">
-        <v>1818300.2</v>
+        <v>578005.49</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
@@ -2547,49 +2547,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10441743.70778947</v>
+        <v>3829313.556230683</v>
       </c>
       <c r="C42" t="n">
-        <v>10401389.83228959</v>
+        <v>3708017.785373587</v>
       </c>
       <c r="D42" t="n">
-        <v>8638605.658415033</v>
+        <v>3819260.791285237</v>
       </c>
       <c r="E42" t="n">
-        <v>10206325.54886599</v>
+        <v>3888653.167900231</v>
       </c>
       <c r="F42" t="n">
-        <v>10881196.47960455</v>
+        <v>3919462.602388713</v>
       </c>
       <c r="G42" t="n">
-        <v>10766623.07999202</v>
+        <v>3796363.544948443</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4dt</t>
+          <t>Прогнозы_ETS_CA4dt</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>61447778</v>
+        <v>23105133</v>
       </c>
       <c r="J42" t="n">
-        <v>61335884.30695665</v>
+        <v>22961071.44812689</v>
       </c>
       <c r="K42" t="n">
-        <v>111893.6930433512</v>
+        <v>144061.5518731065</v>
       </c>
       <c r="L42" t="n">
-        <v>1761549.98</v>
+        <v>594930.7</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42" t="n">
         <v>1</v>
@@ -2598,43 +2598,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5643024.754169529</v>
+        <v>2971648.266573341</v>
       </c>
       <c r="C43" t="n">
-        <v>4598424.792649133</v>
+        <v>2788095.007020894</v>
       </c>
       <c r="D43" t="n">
-        <v>5994800.92386631</v>
+        <v>2789010.286743425</v>
       </c>
       <c r="E43" t="n">
-        <v>5897470.766132443</v>
+        <v>3191984.34764866</v>
       </c>
       <c r="F43" t="n">
-        <v>5231036.621391782</v>
+        <v>3021248.822259534</v>
       </c>
       <c r="G43" t="n">
-        <v>5750759.771751118</v>
+        <v>2837695.562707087</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12dt</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>32874823</v>
+        <v>17466652</v>
       </c>
       <c r="J43" t="n">
-        <v>33115517.62996031</v>
+        <v>17599682.29295294</v>
       </c>
       <c r="K43" t="n">
-        <v>240694.6299603134</v>
+        <v>133030.2929529399</v>
       </c>
       <c r="L43" t="n">
-        <v>1098575.97</v>
+        <v>400195.25</v>
       </c>
       <c r="M43" t="n">
         <v>0.01</v>
@@ -2649,43 +2649,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10489822.0073405</v>
+        <v>5720560.485578157</v>
       </c>
       <c r="C44" t="n">
-        <v>12165599.55721501</v>
+        <v>5769067.752708841</v>
       </c>
       <c r="D44" t="n">
-        <v>12919776.58882387</v>
+        <v>5817575.019839462</v>
       </c>
       <c r="E44" t="n">
-        <v>12208314.12792478</v>
+        <v>5866082.286969889</v>
       </c>
       <c r="F44" t="n">
-        <v>11158245.18566844</v>
+        <v>5914589.554100182</v>
       </c>
       <c r="G44" t="n">
-        <v>12827895.27690759</v>
+        <v>5963096.821230359</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_GP_Combo_1</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>71634320</v>
+        <v>34895356</v>
       </c>
       <c r="J44" t="n">
-        <v>71769652.74388018</v>
+        <v>35050971.92042689</v>
       </c>
       <c r="K44" t="n">
-        <v>135332.7438801825</v>
+        <v>155615.9204268903</v>
       </c>
       <c r="L44" t="n">
-        <v>1397196.97</v>
+        <v>652808.29</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2700,49 +2700,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4490423.024753124</v>
+        <v>2692175.739098758</v>
       </c>
       <c r="C45" t="n">
-        <v>4558221.377026707</v>
+        <v>2697848.175129086</v>
       </c>
       <c r="D45" t="n">
-        <v>4673098.402572513</v>
+        <v>2703268.593352012</v>
       </c>
       <c r="E45" t="n">
-        <v>4852549.085378677</v>
+        <v>2708445.737462059</v>
       </c>
       <c r="F45" t="n">
-        <v>4916672.407995194</v>
+        <v>2713388.561634354</v>
       </c>
       <c r="G45" t="n">
-        <v>4897304.802978277</v>
+        <v>2718106.124575287</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>29182625</v>
+        <v>17029503</v>
       </c>
       <c r="J45" t="n">
-        <v>28388269.10070449</v>
+        <v>16233232.93125156</v>
       </c>
       <c r="K45" t="n">
-        <v>794355.8992955089</v>
+        <v>796270.0687484443</v>
       </c>
       <c r="L45" t="n">
-        <v>578093.09</v>
+        <v>545787.97</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N45" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
@@ -2751,49 +2751,49 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14260793.62587707</v>
+        <v>2309685.262416713</v>
       </c>
       <c r="C46" t="n">
-        <v>11431298.81823007</v>
+        <v>2495712.395464859</v>
       </c>
       <c r="D46" t="n">
-        <v>8785700.572051564</v>
+        <v>2655487.60145149</v>
       </c>
       <c r="E46" t="n">
-        <v>8206382.764287359</v>
+        <v>2074249.249977998</v>
       </c>
       <c r="F46" t="n">
-        <v>9939713.378839938</v>
+        <v>2320345.360787895</v>
       </c>
       <c r="G46" t="n">
-        <v>13884065.41767489</v>
+        <v>2012727.495002232</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12dt</t>
+          <t>прогнозы_SARIMA_111</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>66078416</v>
+        <v>13863642</v>
       </c>
       <c r="J46" t="n">
-        <v>66507954.57696089</v>
+        <v>13868207.36510119</v>
       </c>
       <c r="K46" t="n">
-        <v>429538.5769608915</v>
+        <v>4565.365101186559</v>
       </c>
       <c r="L46" t="n">
-        <v>2641755.86</v>
+        <v>589768.5600000001</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -2802,49 +2802,49 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1985464.605128676</v>
+        <v>2185982.540079355</v>
       </c>
       <c r="C47" t="n">
-        <v>2025027.050893307</v>
+        <v>2160226.54124597</v>
       </c>
       <c r="D47" t="n">
-        <v>2061047.66934751</v>
+        <v>2272564.477718183</v>
       </c>
       <c r="E47" t="n">
-        <v>2093995.150442958</v>
+        <v>1831136.773859092</v>
       </c>
       <c r="F47" t="n">
-        <v>2124261.537981376</v>
+        <v>1766931.887067843</v>
       </c>
       <c r="G47" t="n">
-        <v>2152531.804507896</v>
+        <v>1851341.819779471</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>12620007</v>
+        <v>12319777</v>
       </c>
       <c r="J47" t="n">
-        <v>12442327.81830172</v>
+        <v>12068184.03974991</v>
       </c>
       <c r="K47" t="n">
-        <v>177679.1816982776</v>
+        <v>251592.9602500871</v>
       </c>
       <c r="L47" t="n">
-        <v>274917.77</v>
+        <v>279975.52</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N47" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -2853,49 +2853,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>518057.0489963433</v>
+        <v>4611045.000230066</v>
       </c>
       <c r="C48" t="n">
-        <v>522562.854139288</v>
+        <v>4602983.981453337</v>
       </c>
       <c r="D48" t="n">
-        <v>526825.5892968178</v>
+        <v>4594893.054878041</v>
       </c>
       <c r="E48" t="n">
-        <v>530860.0210219622</v>
+        <v>4586808.930885583</v>
       </c>
       <c r="F48" t="n">
-        <v>534680.015982287</v>
+        <v>4578798.215529755</v>
       </c>
       <c r="G48" t="n">
-        <v>538298.5842662537</v>
+        <v>4570862.76763171</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural1</t>
+          <t>Прогнозы_GP_Combo_2</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3021229</v>
+        <v>28780675</v>
       </c>
       <c r="J48" t="n">
-        <v>3171284.113702952</v>
+        <v>27545391.95060849</v>
       </c>
       <c r="K48" t="n">
-        <v>150055.1137029519</v>
+        <v>1235283.049391508</v>
       </c>
       <c r="L48" t="n">
-        <v>163473.97</v>
+        <v>714864.74</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N48" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O48" t="n">
         <v>1</v>
@@ -2904,94 +2904,94 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>587431.4524719785</v>
+        <v>690695.0528315488</v>
       </c>
       <c r="C49" t="n">
-        <v>559757.1519214177</v>
+        <v>637930.2055810471</v>
       </c>
       <c r="D49" t="n">
-        <v>742037.3576260245</v>
+        <v>641467.7940815747</v>
       </c>
       <c r="E49" t="n">
-        <v>838270.081930167</v>
+        <v>726420.1243510493</v>
       </c>
       <c r="F49" t="n">
-        <v>926850.2472527382</v>
+        <v>751570.5426008926</v>
       </c>
       <c r="G49" t="n">
-        <v>885788.741024869</v>
+        <v>698805.6953503909</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4551223</v>
+        <v>5241467</v>
       </c>
       <c r="J49" t="n">
-        <v>4540135.032227195</v>
+        <v>4146889.414796503</v>
       </c>
       <c r="K49" t="n">
-        <v>11087.96777280513</v>
+        <v>1094577.585203497</v>
       </c>
       <c r="L49" t="n">
-        <v>204423.37</v>
+        <v>230402.32</v>
       </c>
       <c r="M49" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1734293.252140314</v>
+        <v>2862850.919580979</v>
       </c>
       <c r="C50" t="n">
-        <v>1822407.041196761</v>
+        <v>2767042.828757433</v>
       </c>
       <c r="D50" t="n">
-        <v>1778052.419933807</v>
+        <v>2781862.106182748</v>
       </c>
       <c r="E50" t="n">
-        <v>1843712.311080262</v>
+        <v>2850699.967128216</v>
       </c>
       <c r="F50" t="n">
-        <v>1883799.236771909</v>
+        <v>2961976.521974313</v>
       </c>
       <c r="G50" t="n">
-        <v>1971913.025828356</v>
+        <v>2766721.952642638</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10988887</v>
+        <v>17075844</v>
       </c>
       <c r="J50" t="n">
-        <v>11034177.28695141</v>
+        <v>16991154.29626633</v>
       </c>
       <c r="K50" t="n">
-        <v>45290.28695140965</v>
+        <v>84689.70373367146</v>
       </c>
       <c r="L50" t="n">
-        <v>175266.28</v>
+        <v>188739.1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3006,26 +3006,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2477082.905894417</v>
+        <v>3158212.392701149</v>
       </c>
       <c r="C51" t="n">
-        <v>2783584.076351098</v>
+        <v>3457571.812322769</v>
       </c>
       <c r="D51" t="n">
-        <v>2476607.355184218</v>
+        <v>3339727.3582119</v>
       </c>
       <c r="E51" t="n">
-        <v>2935159.426821022</v>
+        <v>3382942.733979435</v>
       </c>
       <c r="F51" t="n">
-        <v>2680567.589053262</v>
+        <v>3224065.633210831</v>
       </c>
       <c r="G51" t="n">
-        <v>2664290.082338903</v>
+        <v>2841010.34345901</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3033,1350 +3033,24 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>15855950</v>
+        <v>19740218</v>
       </c>
       <c r="J51" t="n">
-        <v>16017291.43564292</v>
+        <v>19403530.27388509</v>
       </c>
       <c r="K51" t="n">
-        <v>161341.4356429186</v>
+        <v>336687.7261149064</v>
       </c>
       <c r="L51" t="n">
-        <v>484299.09</v>
+        <v>345079.21</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N51" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2983868.964010211</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3462676.005675937</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2753919.851569749</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3637130.020919288</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3253997.974715481</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3692946.43654397</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA12</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>19538493</v>
-      </c>
-      <c r="J52" t="n">
-        <v>19784539.25343464</v>
-      </c>
-      <c r="K52" t="n">
-        <v>246046.2534346357</v>
-      </c>
-      <c r="L52" t="n">
-        <v>754655.1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1267329.934562316</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1070154.317599532</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1729441.642933753</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2396540.417638263</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1865029.906683111</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1562743.092256796</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>9855245</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9891239.311673772</v>
-      </c>
-      <c r="K53" t="n">
-        <v>35994.31167377159</v>
-      </c>
-      <c r="L53" t="n">
-        <v>537552.0600000001</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1004972.355961666</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1004972.366974522</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1004972.377151762</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1004972.386483684</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1004972.394961399</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1004972.402576825</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>5848207</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6029834.284109858</v>
-      </c>
-      <c r="K54" t="n">
-        <v>181627.2841098579</v>
-      </c>
-      <c r="L54" t="n">
-        <v>286728.84</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4430950.213827992</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4123223.243083229</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3586769.76880458</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4059750.994826408</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4472717.45893676</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4163002.405941821</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA4dt</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>24044976</v>
-      </c>
-      <c r="J55" t="n">
-        <v>24836414.08542079</v>
-      </c>
-      <c r="K55" t="n">
-        <v>791438.0854207911</v>
-      </c>
-      <c r="L55" t="n">
-        <v>582366.35</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3831527.748723743</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4206763.339072133</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5058354.751852105</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4555971.161231998</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3808205.490099667</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4117518.874546168</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Прогнозы_ProphetMul</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>26993939</v>
-      </c>
-      <c r="J56" t="n">
-        <v>25578341.36552582</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1415597.634474184</v>
-      </c>
-      <c r="L56" t="n">
-        <v>783326.05</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5321381.586157704</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5010875.146856839</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5210341.269144627</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6139761.055234386</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4444496.190872188</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4758445.11575846</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>30635798</v>
-      </c>
-      <c r="J57" t="n">
-        <v>30885300.36402421</v>
-      </c>
-      <c r="K57" t="n">
-        <v>249502.364024207</v>
-      </c>
-      <c r="L57" t="n">
-        <v>459101.99</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4596782.337135598</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4613287.302140519</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4628889.647934422</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4643643.441470176</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4657599.533562467</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4670805.711438537</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>прогнозы_GP_Neural2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>28292401</v>
-      </c>
-      <c r="J58" t="n">
-        <v>27811007.97368172</v>
-      </c>
-      <c r="K58" t="n">
-        <v>481393.0263182819</v>
-      </c>
-      <c r="L58" t="n">
-        <v>260767.9</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3138245.059291399</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2882364.923627502</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3187494.719026559</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3258994.382515084</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3003759.433779376</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3310090.895845155</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>18768966</v>
-      </c>
-      <c r="J59" t="n">
-        <v>18780949.41408508</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11983.41408507526</v>
-      </c>
-      <c r="L59" t="n">
-        <v>289789.9</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4010279.367994654</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3991049.060853077</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3887274.965536102</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4015689.42138443</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4170143.698690515</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4150913.391548939</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>24214460</v>
-      </c>
-      <c r="J60" t="n">
-        <v>24225349.90600771</v>
-      </c>
-      <c r="K60" t="n">
-        <v>10889.90600771457</v>
-      </c>
-      <c r="L60" t="n">
-        <v>441615.5</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2476194.820172511</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2793604.54265064</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2889072.939085588</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3324131.419182339</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3817620.008596998</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3012866.240548986</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Прогнозы_ProphetAdd</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>18265313</v>
-      </c>
-      <c r="J61" t="n">
-        <v>18313489.97023706</v>
-      </c>
-      <c r="K61" t="n">
-        <v>48176.97023706138</v>
-      </c>
-      <c r="L61" t="n">
-        <v>458704.65</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6450893.810583954</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5419482.941796638</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6573977.56160979</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5876462.12508585</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5728828.665788483</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6650970.298663845</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA12dt</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>36452480</v>
-      </c>
-      <c r="J62" t="n">
-        <v>36700615.40352856</v>
-      </c>
-      <c r="K62" t="n">
-        <v>248135.4035285562</v>
-      </c>
-      <c r="L62" t="n">
-        <v>496473.14</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3040511.899702474</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3072214.578708187</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3103917.257713877</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3135619.936719611</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3167322.615725331</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3199025.294731028</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>17831566</v>
-      </c>
-      <c r="J63" t="n">
-        <v>18718611.58330051</v>
-      </c>
-      <c r="K63" t="n">
-        <v>887045.5833005086</v>
-      </c>
-      <c r="L63" t="n">
-        <v>268657.94</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2313156.761416693</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2378462.09909895</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2549237.274847524</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2768527.901384127</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2206579.745134119</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2401120.737213613</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_112</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>14738460</v>
-      </c>
-      <c r="J64" t="n">
-        <v>14617084.51909503</v>
-      </c>
-      <c r="K64" t="n">
-        <v>121375.480904974</v>
-      </c>
-      <c r="L64" t="n">
-        <v>513256.69</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1759834.313465804</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1804329.072137207</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1848802.111508578</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1893301.332260191</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1937798.988539696</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1982271.423105419</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>12125644</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11226337.24101689</v>
-      </c>
-      <c r="K65" t="n">
-        <v>899306.7589831054</v>
-      </c>
-      <c r="L65" t="n">
-        <v>223675.59</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4908066.268332551</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5080461.274807185</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4994911.162663867</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5147253.966810836</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5178835.650967903</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5351230.657442536</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>30694506</v>
-      </c>
-      <c r="J66" t="n">
-        <v>30660758.98102488</v>
-      </c>
-      <c r="K66" t="n">
-        <v>33747.01897512004</v>
-      </c>
-      <c r="L66" t="n">
-        <v>608171.09</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>879724.7973668595</v>
-      </c>
-      <c r="C67" t="n">
-        <v>794780.6358828553</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1143874.430763731</v>
-      </c>
-      <c r="E67" t="n">
-        <v>758600.1537172233</v>
-      </c>
-      <c r="F67" t="n">
-        <v>817909.3483960798</v>
-      </c>
-      <c r="G67" t="n">
-        <v>973344.3040983682</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>5133043</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5368233.670225117</v>
-      </c>
-      <c r="K67" t="n">
-        <v>235190.6702251174</v>
-      </c>
-      <c r="L67" t="n">
-        <v>172055.29</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2994027.589408367</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3060091.624374275</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2787139.023292338</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2727398.486798178</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2744190.538901774</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2843727.787328596</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>17150851</v>
-      </c>
-      <c r="J68" t="n">
-        <v>17156575.05010353</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5724.050103530288</v>
-      </c>
-      <c r="L68" t="n">
-        <v>211881.24</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3018989.017143747</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3042299.295573458</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3315525.063773784</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3332184.347211573</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3427365.326811447</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3403284.525343116</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_211</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>19498202</v>
-      </c>
-      <c r="J69" t="n">
-        <v>19539647.57585713</v>
-      </c>
-      <c r="K69" t="n">
-        <v>41445.57585712522</v>
-      </c>
-      <c r="L69" t="n">
-        <v>395319.36</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>8334152.799869383</v>
-      </c>
-      <c r="C70" t="n">
-        <v>8928886.895640247</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10664626.85956169</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11975116.20614582</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13038354.89175763</v>
-      </c>
-      <c r="G70" t="n">
-        <v>14395261.43562587</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>166057003</v>
-      </c>
-      <c r="J70" t="n">
-        <v>67336399.08860064</v>
-      </c>
-      <c r="K70" t="n">
-        <v>98720603.91139936</v>
-      </c>
-      <c r="L70" t="n">
-        <v>16453433.99</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20970285.86569307</v>
-      </c>
-      <c r="C71" t="n">
-        <v>23211728.07079582</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26110910.36114639</v>
-      </c>
-      <c r="E71" t="n">
-        <v>26210631.56486795</v>
-      </c>
-      <c r="F71" t="n">
-        <v>31369167.58092871</v>
-      </c>
-      <c r="G71" t="n">
-        <v>57807340.36256815</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Прогнозы_Holt-Winters_MulMul</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>178661193</v>
-      </c>
-      <c r="J71" t="n">
-        <v>185680063.8060001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7018870.806000084</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2226065.16</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>799190.0397899523</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1008237.676281502</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4314613.46360869</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-3726366.259356052</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4467136.432641627</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1844156.696415886</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>3913917</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3002179.303986829</v>
-      </c>
-      <c r="K72" t="n">
-        <v>911737.6960131712</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2841116.26</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9287652.755195918</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9201257.929981662</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9034059.873719569</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9685692.816390339</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8830246.973760625</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9472500.164589655</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA12</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>55050888</v>
-      </c>
-      <c r="J73" t="n">
-        <v>55511410.51363777</v>
-      </c>
-      <c r="K73" t="n">
-        <v>460522.5136377662</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1641937.03</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19797882.67520716</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16811534.05050386</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19420610.60611567</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19281706.65172055</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20877547.76861139</v>
-      </c>
-      <c r="G74" t="n">
-        <v>26441490.61814626</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA12dt</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>121831175</v>
-      </c>
-      <c r="J74" t="n">
-        <v>122630772.3703049</v>
-      </c>
-      <c r="K74" t="n">
-        <v>799597.3703048825</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2748902.74</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27978811.00231999</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30732996.83738973</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30373714.59830913</v>
-      </c>
-      <c r="E75" t="n">
-        <v>30385281.48336777</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31613893.07653178</v>
-      </c>
-      <c r="G75" t="n">
-        <v>47549211.42674488</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>187888439</v>
-      </c>
-      <c r="J75" t="n">
-        <v>198633908.4246633</v>
-      </c>
-      <c r="K75" t="n">
-        <v>10745469.42466328</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5506144.44</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15580539.70126326</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17351397.00625135</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19121528.42595237</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20892460.4001393</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22663650.67399716</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24434507.97898525</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>117806380</v>
-      </c>
-      <c r="J76" t="n">
-        <v>120044084.1865887</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2237704.18658869</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4402562.46</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>14744120.19904156</v>
-      </c>
-      <c r="C77" t="n">
-        <v>14787409.39748713</v>
-      </c>
-      <c r="D77" t="n">
-        <v>16317468.42002895</v>
-      </c>
-      <c r="E77" t="n">
-        <v>18345628.67693554</v>
-      </c>
-      <c r="F77" t="n">
-        <v>18092375.74937669</v>
-      </c>
-      <c r="G77" t="n">
-        <v>14660091.75186298</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>100186838</v>
-      </c>
-      <c r="J77" t="n">
-        <v>96947094.19473284</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3239743.805267155</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2215025.72</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O77" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/best_results_my_mape.xlsx
+++ b/data/best_results_my_mape.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>diff</t>
+          <t>mean_MAE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -511,48 +511,48 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18615337.18896891</v>
+        <v>20763388.90961535</v>
       </c>
       <c r="C2" t="n">
-        <v>18710368.74246671</v>
+        <v>20706630.30329973</v>
       </c>
       <c r="D2" t="n">
-        <v>18800162.82715313</v>
+        <v>21357460.51973875</v>
       </c>
       <c r="E2" t="n">
-        <v>18885040.83812575</v>
+        <v>22046118.89466478</v>
       </c>
       <c r="F2" t="n">
-        <v>18965304.54741839</v>
+        <v>22954364.97824871</v>
       </c>
       <c r="G2" t="n">
-        <v>19041237.02453608</v>
+        <v>19049647.0454924</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>113348157</v>
       </c>
       <c r="J2" t="n">
-        <v>113017451.168669</v>
+        <v>126877610.6510597</v>
       </c>
       <c r="K2" t="n">
-        <v>330705.8313310444</v>
+        <v>2454376.250666667</v>
       </c>
       <c r="L2" t="n">
-        <v>1963386.5</v>
+        <v>2709777.44</v>
       </c>
       <c r="M2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -562,39 +562,39 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9708070.462423606</v>
+        <v>9675477.966374718</v>
       </c>
       <c r="C3" t="n">
-        <v>10508136.14677363</v>
+        <v>10489353.75631251</v>
       </c>
       <c r="D3" t="n">
-        <v>11264875.77627091</v>
+        <v>11283662.84207237</v>
       </c>
       <c r="E3" t="n">
-        <v>11930730.59273292</v>
+        <v>11965651.12787429</v>
       </c>
       <c r="F3" t="n">
-        <v>13566586.90620976</v>
+        <v>13376778.41144831</v>
       </c>
       <c r="G3" t="n">
-        <v>12682486.85908413</v>
+        <v>12840830.13013749</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>74442330</v>
       </c>
       <c r="J3" t="n">
-        <v>69660886.74349496</v>
+        <v>69631754.23421969</v>
       </c>
       <c r="K3" t="n">
-        <v>4781443.256505042</v>
+        <v>4.360356128745512e+55</v>
       </c>
       <c r="L3" t="n">
-        <v>2256802.46</v>
+        <v>2251169.47</v>
       </c>
       <c r="M3" t="n">
         <v>0.06</v>
@@ -613,45 +613,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15282448.05115925</v>
+        <v>11152122.98656367</v>
       </c>
       <c r="C4" t="n">
-        <v>20109963.05310323</v>
+        <v>11670257.20674515</v>
       </c>
       <c r="D4" t="n">
-        <v>24512375.06422014</v>
+        <v>11865075.88651831</v>
       </c>
       <c r="E4" t="n">
-        <v>28667436.1838647</v>
+        <v>11889653.52878457</v>
       </c>
       <c r="F4" t="n">
-        <v>33116157.56666174</v>
+        <v>12189425.46016978</v>
       </c>
       <c r="G4" t="n">
-        <v>36727960.28294577</v>
+        <v>11945602.3817555</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>210844148</v>
       </c>
       <c r="J4" t="n">
-        <v>158416340.2019548</v>
+        <v>70712137.45053698</v>
       </c>
       <c r="K4" t="n">
-        <v>52427807.79804516</v>
+        <v>3.956047437550837e+281</v>
       </c>
       <c r="L4" t="n">
-        <v>8737967.970000001</v>
+        <v>23355335.09</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0.66</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -664,45 +664,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22643559.22901293</v>
+        <v>22799535.28521073</v>
       </c>
       <c r="C5" t="n">
-        <v>25245590.82205776</v>
+        <v>24624022.48375807</v>
       </c>
       <c r="D5" t="n">
-        <v>25073599.71943979</v>
+        <v>25180054.4315674</v>
       </c>
       <c r="E5" t="n">
-        <v>29643319.76803613</v>
+        <v>27182950.45194668</v>
       </c>
       <c r="F5" t="n">
-        <v>53883183.65359294</v>
+        <v>37020939.26472623</v>
       </c>
       <c r="G5" t="n">
-        <v>6997740.642530772</v>
+        <v>20743791.25727659</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>161806077</v>
       </c>
       <c r="J5" t="n">
-        <v>163486993.8346703</v>
+        <v>157551293.1744857</v>
       </c>
       <c r="K5" t="n">
-        <v>1680916.834670305</v>
+        <v>8394078.267333336</v>
       </c>
       <c r="L5" t="n">
-        <v>1260862.57</v>
+        <v>5932700.22</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -715,45 +715,45 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912853.586390682</v>
+        <v>1912134.638443128</v>
       </c>
       <c r="C6" t="n">
-        <v>1734694.378721698</v>
+        <v>2767003.272132751</v>
       </c>
       <c r="D6" t="n">
-        <v>1569145.771689503</v>
+        <v>1080196.815247672</v>
       </c>
       <c r="E6" t="n">
-        <v>1416024.089032973</v>
+        <v>3095398.911411444</v>
       </c>
       <c r="F6" t="n">
-        <v>1274991.643535888</v>
+        <v>1746992.365868451</v>
       </c>
       <c r="G6" t="n">
-        <v>1145593.651765401</v>
+        <v>1231027.913965042</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Matern</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>4117148</v>
       </c>
       <c r="J6" t="n">
-        <v>9053303.121136146</v>
+        <v>11832753.91706849</v>
       </c>
       <c r="K6" t="n">
-        <v>4936155.121136146</v>
+        <v>2303545.114651163</v>
       </c>
       <c r="L6" t="n">
-        <v>916115.64</v>
+        <v>1285934.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2</v>
+        <v>-0.8700000000000001</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -766,45 +766,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8451300.527962346</v>
+        <v>8353811.001566979</v>
       </c>
       <c r="C7" t="n">
-        <v>8497392.357581565</v>
+        <v>8186611.285019059</v>
       </c>
       <c r="D7" t="n">
-        <v>8965745.224729015</v>
+        <v>8838243.982896974</v>
       </c>
       <c r="E7" t="n">
-        <v>9211559.291227285</v>
+        <v>7982799.822147256</v>
       </c>
       <c r="F7" t="n">
-        <v>9164823.41829079</v>
+        <v>8625055.477300284</v>
       </c>
       <c r="G7" t="n">
-        <v>9210915.24791001</v>
+        <v>8164276.433042116</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>60259530</v>
       </c>
       <c r="J7" t="n">
-        <v>53501736.06770101</v>
+        <v>50150798.00197268</v>
       </c>
       <c r="K7" t="n">
-        <v>6757793.932298988</v>
+        <v>105428680284287.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1850571.79</v>
+        <v>1820884.36</v>
       </c>
       <c r="M7" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -817,48 +817,48 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18112021.55923866</v>
+        <v>13963978.49285576</v>
       </c>
       <c r="C8" t="n">
-        <v>21888875.58195828</v>
+        <v>16787615.90228501</v>
       </c>
       <c r="D8" t="n">
-        <v>21442839.07263443</v>
+        <v>16198288.19333041</v>
       </c>
       <c r="E8" t="n">
-        <v>17424443.70293033</v>
+        <v>17549641.26444123</v>
       </c>
       <c r="F8" t="n">
-        <v>19627347.25207026</v>
+        <v>23563527.72875066</v>
       </c>
       <c r="G8" t="n">
-        <v>19242451.72714481</v>
+        <v>11624146.98437662</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>117732850</v>
       </c>
       <c r="J8" t="n">
-        <v>117737978.8959768</v>
+        <v>99687198.5660397</v>
       </c>
       <c r="K8" t="n">
-        <v>5128.895976766944</v>
+        <v>1069314445.851778</v>
       </c>
       <c r="L8" t="n">
-        <v>3159638.31</v>
+        <v>4064138.82</v>
       </c>
       <c r="M8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -868,48 +868,48 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28687728.53422228</v>
+        <v>26030228.49737646</v>
       </c>
       <c r="C9" t="n">
-        <v>27841488.67343732</v>
+        <v>24964504.34800495</v>
       </c>
       <c r="D9" t="n">
-        <v>28351142.88143919</v>
+        <v>25279693.16216829</v>
       </c>
       <c r="E9" t="n">
-        <v>29091391.62209728</v>
+        <v>25175133.98531126</v>
       </c>
       <c r="F9" t="n">
-        <v>38019163.34646554</v>
+        <v>31923356.81627299</v>
       </c>
       <c r="G9" t="n">
-        <v>28399658.38284485</v>
+        <v>24515280.86576253</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>182190932</v>
       </c>
       <c r="J9" t="n">
-        <v>180390573.4405065</v>
+        <v>157888197.6748965</v>
       </c>
       <c r="K9" t="n">
-        <v>1800358.559493542</v>
+        <v>6705209.41488889</v>
       </c>
       <c r="L9" t="n">
-        <v>5265334.89</v>
+        <v>5427919.46</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -919,45 +919,45 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10688746.55718227</v>
+        <v>27023581.04288868</v>
       </c>
       <c r="C10" t="n">
-        <v>10473030.28319589</v>
+        <v>32226577.45399841</v>
       </c>
       <c r="D10" t="n">
-        <v>10431405.56374625</v>
+        <v>37472234.00934055</v>
       </c>
       <c r="E10" t="n">
-        <v>9730637.438629823</v>
+        <v>42396381.13730685</v>
       </c>
       <c r="F10" t="n">
-        <v>10232850.35457295</v>
+        <v>47636231.98200607</v>
       </c>
       <c r="G10" t="n">
-        <v>7471177.588126277</v>
+        <v>51677408.5522386</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_211</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>109264489</v>
       </c>
       <c r="J10" t="n">
-        <v>59027847.78545346</v>
+        <v>238432414.1777791</v>
       </c>
       <c r="K10" t="n">
-        <v>50236641.21454654</v>
+        <v>1.216809836056594e+17</v>
       </c>
       <c r="L10" t="n">
-        <v>8372773.54</v>
+        <v>21527987.53</v>
       </c>
       <c r="M10" t="n">
-        <v>0.46</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.54</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -970,45 +970,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15866452.37148222</v>
+        <v>16037420.13044868</v>
       </c>
       <c r="C11" t="n">
-        <v>16383677.86444868</v>
+        <v>17207834.03728709</v>
       </c>
       <c r="D11" t="n">
-        <v>16890402.31704768</v>
+        <v>18551325.63319275</v>
       </c>
       <c r="E11" t="n">
-        <v>17386608.2529094</v>
+        <v>19113853.43568347</v>
       </c>
       <c r="F11" t="n">
-        <v>17872785.15949804</v>
+        <v>18599938.88291024</v>
       </c>
       <c r="G11" t="n">
-        <v>18349906.47671718</v>
+        <v>18636256.92021364</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>102673839</v>
       </c>
       <c r="J11" t="n">
-        <v>102749832.4421032</v>
+        <v>108146629.0397359</v>
       </c>
       <c r="K11" t="n">
-        <v>75993.44210320711</v>
+        <v>4268557568993.785</v>
       </c>
       <c r="L11" t="n">
-        <v>1681571.33</v>
+        <v>2155599.71</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1021,45 +1021,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41320529.9704909</v>
+        <v>39854353.03827712</v>
       </c>
       <c r="C12" t="n">
-        <v>46800175.41062579</v>
+        <v>44895881.80702204</v>
       </c>
       <c r="D12" t="n">
-        <v>49895861.26929149</v>
+        <v>47390765.42931979</v>
       </c>
       <c r="E12" t="n">
-        <v>48808688.48998812</v>
+        <v>45464519.95575976</v>
       </c>
       <c r="F12" t="n">
-        <v>40335400.34851107</v>
+        <v>38612850.20338782</v>
       </c>
       <c r="G12" t="n">
-        <v>38574336.30708861</v>
+        <v>38521553.97712337</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>264637901</v>
       </c>
       <c r="J12" t="n">
-        <v>265734991.795996</v>
+        <v>254739924.4108899</v>
       </c>
       <c r="K12" t="n">
-        <v>1097090.795995981</v>
+        <v>7599931.676222222</v>
       </c>
       <c r="L12" t="n">
-        <v>4761647.08</v>
+        <v>5513655.17</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1072,45 +1072,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40612901.94384171</v>
+        <v>43189828.89007391</v>
       </c>
       <c r="C13" t="n">
-        <v>37516879.90408421</v>
+        <v>42153027.66867686</v>
       </c>
       <c r="D13" t="n">
-        <v>41823088.09744018</v>
+        <v>45874223.42656027</v>
       </c>
       <c r="E13" t="n">
-        <v>39707552.18765359</v>
+        <v>39722937.09957302</v>
       </c>
       <c r="F13" t="n">
-        <v>41132823.76845239</v>
+        <v>37641554.59306844</v>
       </c>
       <c r="G13" t="n">
-        <v>38036801.72869489</v>
+        <v>33444246.42440981</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>238480000</v>
       </c>
       <c r="J13" t="n">
-        <v>238830047.630167</v>
+        <v>242025818.1023623</v>
       </c>
       <c r="K13" t="n">
-        <v>350047.6301669776</v>
+        <v>7024542.881777778</v>
       </c>
       <c r="L13" t="n">
-        <v>6322514.23</v>
+        <v>4396245.8</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1123,45 +1123,45 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>862635.1834189612</v>
+        <v>3151151.317977898</v>
       </c>
       <c r="C14" t="n">
-        <v>834544.1527105104</v>
+        <v>4232423.346692291</v>
       </c>
       <c r="D14" t="n">
-        <v>778972.3363206554</v>
+        <v>5291167.75447276</v>
       </c>
       <c r="E14" t="n">
-        <v>715893.9986488298</v>
+        <v>6327386.794253219</v>
       </c>
       <c r="F14" t="n">
-        <v>657361.6255102102</v>
+        <v>7341070.489276972</v>
       </c>
       <c r="G14" t="n">
-        <v>608953.7713369466</v>
+        <v>8332248.86361584</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>5950327</v>
       </c>
       <c r="J14" t="n">
-        <v>4458361.067946114</v>
+        <v>34675448.56628898</v>
       </c>
       <c r="K14" t="n">
-        <v>1491965.932053886</v>
+        <v>81551821.8515909</v>
       </c>
       <c r="L14" t="n">
-        <v>353721.69</v>
+        <v>4787520.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.25</v>
+        <v>4.83</v>
       </c>
       <c r="N14" t="n">
-        <v>0.75</v>
+        <v>-3.83</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1174,48 +1174,48 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5314338.368086373</v>
+        <v>4208718.605881147</v>
       </c>
       <c r="C15" t="n">
-        <v>4661818.490493233</v>
+        <v>3892173.705236607</v>
       </c>
       <c r="D15" t="n">
-        <v>4174219.163674736</v>
+        <v>3845274.678433962</v>
       </c>
       <c r="E15" t="n">
-        <v>5441075.402148937</v>
+        <v>4412814.050690879</v>
       </c>
       <c r="F15" t="n">
-        <v>4730386.620342702</v>
+        <v>4141287.013541581</v>
       </c>
       <c r="G15" t="n">
-        <v>3996363.91894201</v>
+        <v>4074573.600701908</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_211</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>27766919</v>
       </c>
       <c r="J15" t="n">
-        <v>28318201.96368799</v>
+        <v>24574841.65448609</v>
       </c>
       <c r="K15" t="n">
-        <v>551282.9636879936</v>
+        <v>367203200120680.9</v>
       </c>
       <c r="L15" t="n">
-        <v>781148.9300000001</v>
+        <v>729123.99</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1225,48 +1225,48 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10032196.42976636</v>
+        <v>10147761.4471677</v>
       </c>
       <c r="C16" t="n">
-        <v>10245690.74037299</v>
+        <v>12629592.68723175</v>
       </c>
       <c r="D16" t="n">
-        <v>10459184.60507381</v>
+        <v>12166100.48034732</v>
       </c>
       <c r="E16" t="n">
-        <v>10672678.02453259</v>
+        <v>13438045.03554738</v>
       </c>
       <c r="F16" t="n">
-        <v>10886170.99941239</v>
+        <v>13975487.76637698</v>
       </c>
       <c r="G16" t="n">
-        <v>11099663.53037515</v>
+        <v>12899452.6513977</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>63372422</v>
       </c>
       <c r="J16" t="n">
-        <v>63395584.32953329</v>
+        <v>75256440.06806883</v>
       </c>
       <c r="K16" t="n">
-        <v>23162.32953329384</v>
+        <v>3101878.438863636</v>
       </c>
       <c r="L16" t="n">
-        <v>1526827.46</v>
+        <v>2206481.53</v>
       </c>
       <c r="M16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1276,45 +1276,45 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4874034.837053376</v>
+        <v>4999091.223989557</v>
       </c>
       <c r="C17" t="n">
-        <v>5539572.797390155</v>
+        <v>5518337.451120497</v>
       </c>
       <c r="D17" t="n">
-        <v>5663393.04547444</v>
+        <v>5655248.637736922</v>
       </c>
       <c r="E17" t="n">
-        <v>6015473.926282665</v>
+        <v>5967370.290849389</v>
       </c>
       <c r="F17" t="n">
-        <v>5455120.527196809</v>
+        <v>5576483.502800849</v>
       </c>
       <c r="G17" t="n">
-        <v>4772702.622733676</v>
+        <v>5097063.078552419</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>32092573</v>
       </c>
       <c r="J17" t="n">
-        <v>32320297.75613112</v>
+        <v>32813594.18504963</v>
       </c>
       <c r="K17" t="n">
-        <v>227724.75613112</v>
+        <v>7.879531529949637e+59</v>
       </c>
       <c r="L17" t="n">
-        <v>1331402.99</v>
+        <v>1334194.08</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N17" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1327,45 +1327,45 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3229410.500204269</v>
+        <v>3294545.844641719</v>
       </c>
       <c r="C18" t="n">
-        <v>3232102.886622887</v>
+        <v>3622519.057054506</v>
       </c>
       <c r="D18" t="n">
-        <v>3234584.323986109</v>
+        <v>3270286.003929378</v>
       </c>
       <c r="E18" t="n">
-        <v>3236874.620560516</v>
+        <v>3351780.49567554</v>
       </c>
       <c r="F18" t="n">
-        <v>3238991.448067334</v>
+        <v>3923907.074783204</v>
       </c>
       <c r="G18" t="n">
-        <v>3240950.59484008</v>
+        <v>3649917.504862884</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural1</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>19373177</v>
       </c>
       <c r="J18" t="n">
-        <v>19412914.37428119</v>
+        <v>21112955.98094723</v>
       </c>
       <c r="K18" t="n">
-        <v>39737.37428119406</v>
+        <v>799780.3062222224</v>
       </c>
       <c r="L18" t="n">
-        <v>489158.67</v>
+        <v>697830.33</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1378,45 +1378,45 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7026063.394260041</v>
+        <v>6594464.875964617</v>
       </c>
       <c r="C19" t="n">
-        <v>4787144.101651588</v>
+        <v>5155357.737131863</v>
       </c>
       <c r="D19" t="n">
-        <v>6638522.461567434</v>
+        <v>6391321.717169941</v>
       </c>
       <c r="E19" t="n">
-        <v>5208183.686047717</v>
+        <v>5599799.477017771</v>
       </c>
       <c r="F19" t="n">
-        <v>6413143.624273318</v>
+        <v>6046333.583152097</v>
       </c>
       <c r="G19" t="n">
-        <v>3439890.78916939</v>
+        <v>3239482.74460038</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>38544759</v>
       </c>
       <c r="J19" t="n">
-        <v>33512948.05696949</v>
+        <v>33026760.13503667</v>
       </c>
       <c r="K19" t="n">
-        <v>5031810.94303051</v>
+        <v>1573986.569333334</v>
       </c>
       <c r="L19" t="n">
-        <v>1335100.7</v>
+        <v>1293862.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1429,45 +1429,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3009991.579997246</v>
+        <v>2024678.519896114</v>
       </c>
       <c r="C20" t="n">
-        <v>729572.5585438872</v>
+        <v>2568886.570557413</v>
       </c>
       <c r="D20" t="n">
-        <v>1213672.256597089</v>
+        <v>2934256.259761633</v>
       </c>
       <c r="E20" t="n">
-        <v>1124185.259964288</v>
+        <v>3284318.978112619</v>
       </c>
       <c r="F20" t="n">
-        <v>504220.899381131</v>
+        <v>2671466.786923186</v>
       </c>
       <c r="G20" t="n">
-        <v>1040859.092489602</v>
+        <v>2044252.354154089</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Ex_Per</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>9296247</v>
       </c>
       <c r="J20" t="n">
-        <v>7622501.646973244</v>
+        <v>15527859.46940505</v>
       </c>
       <c r="K20" t="n">
-        <v>1673745.353026756</v>
+        <v>1146238.056363636</v>
       </c>
       <c r="L20" t="n">
-        <v>950085.78</v>
+        <v>1038602.08</v>
       </c>
       <c r="M20" t="n">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1480,48 +1480,48 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3267339.317771256</v>
+        <v>4083136.515675923</v>
       </c>
       <c r="C21" t="n">
-        <v>3252793.976149142</v>
+        <v>3915487.377725333</v>
       </c>
       <c r="D21" t="n">
-        <v>3261306.789020181</v>
+        <v>5174799.239227611</v>
       </c>
       <c r="E21" t="n">
-        <v>3327364.856396586</v>
+        <v>4790184.570027867</v>
       </c>
       <c r="F21" t="n">
-        <v>3339894.394280106</v>
+        <v>5032545.264883735</v>
       </c>
       <c r="G21" t="n">
-        <v>3373918.509681016</v>
+        <v>4315653.179914449</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>20931512</v>
       </c>
       <c r="J21" t="n">
-        <v>19822617.84329829</v>
+        <v>27311806.14745491</v>
       </c>
       <c r="K21" t="n">
-        <v>1108894.156701714</v>
+        <v>1396949.151777778</v>
       </c>
       <c r="L21" t="n">
-        <v>1318950.78</v>
+        <v>1396057.6</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1531,45 +1531,45 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11920400.45794958</v>
+        <v>10484042.26035082</v>
       </c>
       <c r="C22" t="n">
-        <v>11243555.26046232</v>
+        <v>11831778.98822434</v>
       </c>
       <c r="D22" t="n">
-        <v>13181110.77960308</v>
+        <v>13641704.09209606</v>
       </c>
       <c r="E22" t="n">
-        <v>12178810.19686442</v>
+        <v>12574834.92215377</v>
       </c>
       <c r="F22" t="n">
-        <v>12832643.28848567</v>
+        <v>12774137.15505292</v>
       </c>
       <c r="G22" t="n">
-        <v>12155798.09099841</v>
+        <v>10284455.08208151</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>74095502</v>
       </c>
       <c r="J22" t="n">
-        <v>73512318.07436347</v>
+        <v>71590952.49995942</v>
       </c>
       <c r="K22" t="n">
-        <v>583183.9256365299</v>
+        <v>2313728.203555555</v>
       </c>
       <c r="L22" t="n">
-        <v>2462715.86</v>
+        <v>1949769.36</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N22" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -1582,48 +1582,48 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9281572.719723416</v>
+        <v>12371924.0765904</v>
       </c>
       <c r="C23" t="n">
-        <v>7117050.390859817</v>
+        <v>10852074.76904827</v>
       </c>
       <c r="D23" t="n">
-        <v>7661004.569955904</v>
+        <v>8653341.178108295</v>
       </c>
       <c r="E23" t="n">
-        <v>7661974.277767431</v>
+        <v>8347554.172862412</v>
       </c>
       <c r="F23" t="n">
-        <v>6902227.754185541</v>
+        <v>8481436.311539244</v>
       </c>
       <c r="G23" t="n">
-        <v>2853706.449589903</v>
+        <v>5218742.387716108</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>41611363</v>
       </c>
       <c r="J23" t="n">
-        <v>41477536.16208201</v>
+        <v>53925072.89586473</v>
       </c>
       <c r="K23" t="n">
-        <v>133826.837917991</v>
+        <v>2567066.276888889</v>
       </c>
       <c r="L23" t="n">
-        <v>1340642.25</v>
+        <v>2052340.93</v>
       </c>
       <c r="M23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1633,45 +1633,45 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8613737.756634064</v>
+        <v>8761812.008244161</v>
       </c>
       <c r="C24" t="n">
-        <v>10242451.23248725</v>
+        <v>9598496.136142964</v>
       </c>
       <c r="D24" t="n">
-        <v>9846102.802985189</v>
+        <v>9775442.900242174</v>
       </c>
       <c r="E24" t="n">
-        <v>10583583.6262642</v>
+        <v>9585476.081239834</v>
       </c>
       <c r="F24" t="n">
-        <v>13277198.79066879</v>
+        <v>12002967.23876634</v>
       </c>
       <c r="G24" t="n">
-        <v>8143108.72501513</v>
+        <v>7861195.80023124</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>60792346</v>
       </c>
       <c r="J24" t="n">
-        <v>60706182.93405463</v>
+        <v>57585390.16486672</v>
       </c>
       <c r="K24" t="n">
-        <v>86163.06594537199</v>
+        <v>1772362.893777777</v>
       </c>
       <c r="L24" t="n">
-        <v>1005548.04</v>
+        <v>1209247.94</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -1684,48 +1684,48 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4437523.650204765</v>
+        <v>4938622.261699564</v>
       </c>
       <c r="C25" t="n">
-        <v>5766721.678700331</v>
+        <v>6530000.118582115</v>
       </c>
       <c r="D25" t="n">
-        <v>5727392.392928741</v>
+        <v>6431717.461870721</v>
       </c>
       <c r="E25" t="n">
-        <v>5145677.049488914</v>
+        <v>5938419.821239851</v>
       </c>
       <c r="F25" t="n">
-        <v>5823786.318433573</v>
+        <v>6778610.921935968</v>
       </c>
       <c r="G25" t="n">
-        <v>3862108.59864467</v>
+        <v>4719213.965111923</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>31285643</v>
       </c>
       <c r="J25" t="n">
-        <v>30763209.68840099</v>
+        <v>35336584.55044015</v>
       </c>
       <c r="K25" t="n">
-        <v>522433.3115990087</v>
+        <v>1354294.146666666</v>
       </c>
       <c r="L25" t="n">
-        <v>1053474.88</v>
+        <v>1552132.17</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="N25" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1735,45 +1735,45 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10401871.2080267</v>
+        <v>11236725.93229876</v>
       </c>
       <c r="C26" t="n">
-        <v>11710851.37663475</v>
+        <v>10701166.19038308</v>
       </c>
       <c r="D26" t="n">
-        <v>13340663.34019672</v>
+        <v>10908080.29416572</v>
       </c>
       <c r="E26" t="n">
-        <v>12969812.25645456</v>
+        <v>9934334.187978461</v>
       </c>
       <c r="F26" t="n">
-        <v>12654431.72380633</v>
+        <v>12028407.68441921</v>
       </c>
       <c r="G26" t="n">
-        <v>9224145.648508281</v>
+        <v>9459437.766963223</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Прогнозы_ProphetMul</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>70193278</v>
       </c>
       <c r="J26" t="n">
-        <v>70301775.55362734</v>
+        <v>64268152.05620845</v>
       </c>
       <c r="K26" t="n">
-        <v>108497.553627342</v>
+        <v>1973687.522444444</v>
       </c>
       <c r="L26" t="n">
-        <v>1006304.2</v>
+        <v>1642041.22</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -1786,45 +1786,45 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4943157.855573899</v>
+        <v>4355424.879888896</v>
       </c>
       <c r="C27" t="n">
-        <v>3860640.779714483</v>
+        <v>3762067.123755633</v>
       </c>
       <c r="D27" t="n">
-        <v>4315435.735239149</v>
+        <v>4152217.337772796</v>
       </c>
       <c r="E27" t="n">
-        <v>4871367.706877192</v>
+        <v>3989719.646973623</v>
       </c>
       <c r="F27" t="n">
-        <v>4942989.468099609</v>
+        <v>4929656.457807263</v>
       </c>
       <c r="G27" t="n">
-        <v>3860505.74539308</v>
+        <v>4043959.152234483</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>26614642</v>
       </c>
       <c r="J27" t="n">
-        <v>26794097.29089741</v>
+        <v>25233044.59843269</v>
       </c>
       <c r="K27" t="n">
-        <v>179455.2908974104</v>
+        <v>1204537.102272727</v>
       </c>
       <c r="L27" t="n">
-        <v>883338.4300000001</v>
+        <v>1145814.55</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="N27" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -1837,45 +1837,45 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11537417.92731051</v>
+        <v>10439931.26921555</v>
       </c>
       <c r="C28" t="n">
-        <v>8787404.925916651</v>
+        <v>8755848.858424049</v>
       </c>
       <c r="D28" t="n">
-        <v>10460605.91176348</v>
+        <v>8549000.552551253</v>
       </c>
       <c r="E28" t="n">
-        <v>10775007.93666654</v>
+        <v>9331315.831237208</v>
       </c>
       <c r="F28" t="n">
-        <v>11784750.54943578</v>
+        <v>12787111.58264409</v>
       </c>
       <c r="G28" t="n">
-        <v>9034737.548041919</v>
+        <v>8925983.907538909</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>62488896</v>
       </c>
       <c r="J28" t="n">
-        <v>62379924.79913488</v>
+        <v>58789192.00161105</v>
       </c>
       <c r="K28" t="n">
-        <v>108971.2008651197</v>
+        <v>2601910.373777778</v>
       </c>
       <c r="L28" t="n">
-        <v>1521596.88</v>
+        <v>2341044.83</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2180444.073494593</v>
+        <v>2441245.498866085</v>
       </c>
       <c r="C29" t="n">
-        <v>2161456.729552023</v>
+        <v>2522303.532958304</v>
       </c>
       <c r="D29" t="n">
-        <v>1906670.097952185</v>
+        <v>2515886.263967537</v>
       </c>
       <c r="E29" t="n">
-        <v>1935214.002422527</v>
+        <v>2631828.211501228</v>
       </c>
       <c r="F29" t="n">
-        <v>1769407.670695703</v>
+        <v>2685125.782346609</v>
       </c>
       <c r="G29" t="n">
-        <v>1905713.162620779</v>
+        <v>2781386.137097282</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>11901551</v>
       </c>
       <c r="J29" t="n">
-        <v>11858905.73673781</v>
+        <v>15577775.42673705</v>
       </c>
       <c r="K29" t="n">
-        <v>42645.26326218992</v>
+        <v>653615.1402325581</v>
       </c>
       <c r="L29" t="n">
-        <v>403395.2</v>
+        <v>612704.0699999999</v>
       </c>
       <c r="M29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1939,48 +1939,48 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>549133.7820155643</v>
+        <v>728830.9248896845</v>
       </c>
       <c r="C30" t="n">
-        <v>531592.6009715752</v>
+        <v>736781.4289656042</v>
       </c>
       <c r="D30" t="n">
-        <v>514611.7442829532</v>
+        <v>745790.9378268312</v>
       </c>
       <c r="E30" t="n">
-        <v>498173.3133040803</v>
+        <v>762408.4942891998</v>
       </c>
       <c r="F30" t="n">
-        <v>482259.9811323163</v>
+        <v>1041457.669385583</v>
       </c>
       <c r="G30" t="n">
-        <v>466854.9743446026</v>
+        <v>809879.87714702</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2867829</v>
       </c>
       <c r="J30" t="n">
-        <v>3042626.396051092</v>
+        <v>4825149.332503923</v>
       </c>
       <c r="K30" t="n">
-        <v>174797.3960510921</v>
+        <v>102092097400.9148</v>
       </c>
       <c r="L30" t="n">
-        <v>131942.71</v>
+        <v>344984.25</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06</v>
+        <v>0.68</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1990,45 +1990,45 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>913070.4451681972</v>
+        <v>622177.6230730717</v>
       </c>
       <c r="C31" t="n">
-        <v>932092.7461091876</v>
+        <v>799178.0939156696</v>
       </c>
       <c r="D31" t="n">
-        <v>951115.0470502004</v>
+        <v>851751.5752153313</v>
       </c>
       <c r="E31" t="n">
-        <v>970137.3479911983</v>
+        <v>912780.5731066912</v>
       </c>
       <c r="F31" t="n">
-        <v>989159.6489322037</v>
+        <v>885293.8290066654</v>
       </c>
       <c r="G31" t="n">
-        <v>1008181.949873209</v>
+        <v>602830.1064296002</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_lin_Per</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>7067675</v>
       </c>
       <c r="J31" t="n">
-        <v>5763757.185124196</v>
+        <v>4674011.800747029</v>
       </c>
       <c r="K31" t="n">
-        <v>1303917.814875804</v>
+        <v>600346.7068888888</v>
       </c>
       <c r="L31" t="n">
-        <v>596330.16</v>
+        <v>584445.15</v>
       </c>
       <c r="M31" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2041,48 +2041,48 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626127.571178619</v>
+        <v>1879791.919276783</v>
       </c>
       <c r="C32" t="n">
-        <v>1636197.851659238</v>
+        <v>2096268.157298918</v>
       </c>
       <c r="D32" t="n">
-        <v>1645703.557525843</v>
+        <v>2110369.824008538</v>
       </c>
       <c r="E32" t="n">
-        <v>1654681.62518391</v>
+        <v>2029899.935540406</v>
       </c>
       <c r="F32" t="n">
-        <v>1663166.353046566</v>
+        <v>2168586.513077991</v>
       </c>
       <c r="G32" t="n">
-        <v>1671189.595253918</v>
+        <v>1927895.039874433</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>10330188</v>
       </c>
       <c r="J32" t="n">
-        <v>9897066.553848095</v>
+        <v>12212811.38907707</v>
       </c>
       <c r="K32" t="n">
-        <v>433121.4461519048</v>
+        <v>2.055852186441909e+250</v>
       </c>
       <c r="L32" t="n">
-        <v>223114.31</v>
+        <v>360273.26</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="N32" t="n">
-        <v>0.96</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2092,48 +2092,48 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2549727.465552226</v>
+        <v>2323665.597450811</v>
       </c>
       <c r="C33" t="n">
-        <v>2610314.893382907</v>
+        <v>2252783.035159208</v>
       </c>
       <c r="D33" t="n">
-        <v>2670901.503870368</v>
+        <v>2261294.485718324</v>
       </c>
       <c r="E33" t="n">
-        <v>2731487.298294246</v>
+        <v>2166342.805217024</v>
       </c>
       <c r="F33" t="n">
-        <v>2792072.277932286</v>
+        <v>2268005.113421021</v>
       </c>
       <c r="G33" t="n">
-        <v>2852656.444060326</v>
+        <v>2261646.007226445</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>16227852</v>
       </c>
       <c r="J33" t="n">
-        <v>16207159.88309236</v>
+        <v>13533737.04419283</v>
       </c>
       <c r="K33" t="n">
-        <v>20692.11690764129</v>
+        <v>32322249669.09023</v>
       </c>
       <c r="L33" t="n">
-        <v>366796.92</v>
+        <v>449019.16</v>
       </c>
       <c r="M33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2143,45 +2143,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3656829.828461542</v>
+        <v>3222926.971057999</v>
       </c>
       <c r="C34" t="n">
-        <v>2475647.94705147</v>
+        <v>2514173.85929804</v>
       </c>
       <c r="D34" t="n">
-        <v>3878361.845963985</v>
+        <v>3397386.116765214</v>
       </c>
       <c r="E34" t="n">
-        <v>2839977.205360984</v>
+        <v>3014255.768690875</v>
       </c>
       <c r="F34" t="n">
-        <v>3567070.667674555</v>
+        <v>3453207.398073708</v>
       </c>
       <c r="G34" t="n">
-        <v>3026987.119404855</v>
+        <v>2999671.177267875</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulMul</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>19451556</v>
       </c>
       <c r="J34" t="n">
-        <v>19444874.61391739</v>
+        <v>18601621.29115371</v>
       </c>
       <c r="K34" t="n">
-        <v>6681.386082608253</v>
+        <v>850029.6835555555</v>
       </c>
       <c r="L34" t="n">
-        <v>943298.05</v>
+        <v>731821.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34" t="n">
         <v>1</v>
@@ -2194,48 +2194,48 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1477773.231262392</v>
+        <v>1630388.997067054</v>
       </c>
       <c r="C35" t="n">
-        <v>1556536.050144409</v>
+        <v>1774865.996201549</v>
       </c>
       <c r="D35" t="n">
-        <v>1625958.694058761</v>
+        <v>1934166.421239669</v>
       </c>
       <c r="E35" t="n">
-        <v>1443400.191383437</v>
+        <v>1782250.162169913</v>
       </c>
       <c r="F35" t="n">
-        <v>1436824.222319548</v>
+        <v>1769749.447194007</v>
       </c>
       <c r="G35" t="n">
-        <v>1349864.114268833</v>
+        <v>1649329.016780265</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>9007734</v>
       </c>
       <c r="J35" t="n">
-        <v>8890356.503437381</v>
+        <v>10540750.04065246</v>
       </c>
       <c r="K35" t="n">
-        <v>117377.4965626188</v>
+        <v>220461711.7431818</v>
       </c>
       <c r="L35" t="n">
-        <v>308847.68</v>
+        <v>377191.19</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="N35" t="n">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2245,45 +2245,45 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1011394.917034826</v>
+        <v>1333314.759099327</v>
       </c>
       <c r="C36" t="n">
-        <v>1011394.918475086</v>
+        <v>1457415.021370694</v>
       </c>
       <c r="D36" t="n">
-        <v>1011394.91929577</v>
+        <v>1605759.264827181</v>
       </c>
       <c r="E36" t="n">
-        <v>1011394.919495027</v>
+        <v>1318539.228622249</v>
       </c>
       <c r="F36" t="n">
-        <v>1011394.919072408</v>
+        <v>1392221.668290127</v>
       </c>
       <c r="G36" t="n">
-        <v>1011394.918028866</v>
+        <v>1358108.833244504</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Mater_Per</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>5439658</v>
       </c>
       <c r="J36" t="n">
-        <v>6068369.511401983</v>
+        <v>8465358.775454082</v>
       </c>
       <c r="K36" t="n">
-        <v>628711.511401983</v>
+        <v>440617.6259999999</v>
       </c>
       <c r="L36" t="n">
-        <v>245283.97</v>
+        <v>504283.46</v>
       </c>
       <c r="M36" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>0.88</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2296,48 +2296,48 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3779126.384968692</v>
+        <v>4641768.787417045</v>
       </c>
       <c r="C37" t="n">
-        <v>3279065.254215763</v>
+        <v>4195574.48115282</v>
       </c>
       <c r="D37" t="n">
-        <v>3786860.409352179</v>
+        <v>5083046.235097617</v>
       </c>
       <c r="E37" t="n">
-        <v>4228675.964979684</v>
+        <v>4631804.520545475</v>
       </c>
       <c r="F37" t="n">
-        <v>3888507.967568848</v>
+        <v>4176311.26627851</v>
       </c>
       <c r="G37" t="n">
-        <v>3388446.836815919</v>
+        <v>3555798.713634362</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>22578976</v>
       </c>
       <c r="J37" t="n">
-        <v>22350682.81790109</v>
+        <v>26284304.00412583</v>
       </c>
       <c r="K37" t="n">
-        <v>228293.1820989139</v>
+        <v>676952.792</v>
       </c>
       <c r="L37" t="n">
-        <v>720641.79</v>
+        <v>617554.67</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="N37" t="n">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2347,45 +2347,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3966885.08497072</v>
+        <v>3884778.891605349</v>
       </c>
       <c r="C38" t="n">
-        <v>4024109.600961648</v>
+        <v>4272535.768033284</v>
       </c>
       <c r="D38" t="n">
-        <v>4081334.116952583</v>
+        <v>4313549.165117066</v>
       </c>
       <c r="E38" t="n">
-        <v>4138558.632943645</v>
+        <v>3835146.634383343</v>
       </c>
       <c r="F38" t="n">
-        <v>4195783.148934565</v>
+        <v>4283978.409348405</v>
       </c>
       <c r="G38" t="n">
-        <v>4253007.664925627</v>
+        <v>3528113.218154117</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_lin_Per</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>26540442</v>
       </c>
       <c r="J38" t="n">
-        <v>24659678.24968879</v>
+        <v>24118102.08664156</v>
       </c>
       <c r="K38" t="n">
-        <v>1880763.750311211</v>
+        <v>1081708.478</v>
       </c>
       <c r="L38" t="n">
-        <v>934998.42</v>
+        <v>655123.5699999999</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
@@ -2398,45 +2398,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5132350.632852511</v>
+        <v>5223338.061372005</v>
       </c>
       <c r="C39" t="n">
-        <v>5143859.761010352</v>
+        <v>5362480.37622314</v>
       </c>
       <c r="D39" t="n">
-        <v>5580353.124955224</v>
+        <v>5919959.235381335</v>
       </c>
       <c r="E39" t="n">
-        <v>4657016.614684728</v>
+        <v>5111339.593193651</v>
       </c>
       <c r="F39" t="n">
-        <v>4604329.518341827</v>
+        <v>5167437.355189119</v>
       </c>
       <c r="G39" t="n">
-        <v>4239157.633082132</v>
+        <v>4905398.003909055</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>29381475</v>
       </c>
       <c r="J39" t="n">
-        <v>29357067.28492678</v>
+        <v>31689952.62526831</v>
       </c>
       <c r="K39" t="n">
-        <v>24407.71507322416</v>
+        <v>1109987857805.908</v>
       </c>
       <c r="L39" t="n">
-        <v>568795.96</v>
+        <v>804710.84</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O39" t="n">
         <v>1</v>
@@ -2449,48 +2449,48 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4640981.639306828</v>
+        <v>5466173.534920091</v>
       </c>
       <c r="C40" t="n">
-        <v>4656939.573464841</v>
+        <v>5428091.703550625</v>
       </c>
       <c r="D40" t="n">
-        <v>4672019.206982382</v>
+        <v>5809708.065256955</v>
       </c>
       <c r="E40" t="n">
-        <v>4686273.743869953</v>
+        <v>5254591.894353124</v>
       </c>
       <c r="F40" t="n">
-        <v>4699753.161224701</v>
+        <v>5643241.154530249</v>
       </c>
       <c r="G40" t="n">
-        <v>4712504.369752653</v>
+        <v>4784214.121307614</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>27488751</v>
       </c>
       <c r="J40" t="n">
-        <v>28068471.69460136</v>
+        <v>32386020.47391866</v>
       </c>
       <c r="K40" t="n">
-        <v>579720.694601357</v>
+        <v>726345.5802222223</v>
       </c>
       <c r="L40" t="n">
-        <v>331536.78</v>
+        <v>816211.58</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="N40" t="n">
-        <v>0.98</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2500,45 +2500,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3232949.481322631</v>
+        <v>3242673.23952062</v>
       </c>
       <c r="C41" t="n">
-        <v>2846477.078774625</v>
+        <v>3306416.307692388</v>
       </c>
       <c r="D41" t="n">
-        <v>2853919.627753454</v>
+        <v>3416799.356226932</v>
       </c>
       <c r="E41" t="n">
-        <v>2854868.540959694</v>
+        <v>2957346.149344562</v>
       </c>
       <c r="F41" t="n">
-        <v>3270613.885109012</v>
+        <v>3527966.935908212</v>
       </c>
       <c r="G41" t="n">
-        <v>2876609.514453619</v>
+        <v>2905053.700467267</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>17765300</v>
       </c>
       <c r="J41" t="n">
-        <v>17935438.12837303</v>
+        <v>19356255.68915998</v>
       </c>
       <c r="K41" t="n">
-        <v>170138.1283730343</v>
+        <v>530240.4077777778</v>
       </c>
       <c r="L41" t="n">
-        <v>578005.49</v>
+        <v>393261.39</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="N41" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
@@ -2551,48 +2551,48 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3829313.556230683</v>
+        <v>4324491.199348856</v>
       </c>
       <c r="C42" t="n">
-        <v>3708017.785373587</v>
+        <v>4824401.446469938</v>
       </c>
       <c r="D42" t="n">
-        <v>3819260.791285237</v>
+        <v>4777541.670112036</v>
       </c>
       <c r="E42" t="n">
-        <v>3888653.167900231</v>
+        <v>4528208.927611924</v>
       </c>
       <c r="F42" t="n">
-        <v>3919462.602388713</v>
+        <v>4327096.914415814</v>
       </c>
       <c r="G42" t="n">
-        <v>3796363.544948443</v>
+        <v>3460446.141408492</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4dt</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>23105133</v>
       </c>
       <c r="J42" t="n">
-        <v>22961071.44812689</v>
+        <v>26242186.29936706</v>
       </c>
       <c r="K42" t="n">
-        <v>144061.5518731065</v>
+        <v>665639.1413333333</v>
       </c>
       <c r="L42" t="n">
-        <v>594930.7</v>
+        <v>544993.8199999999</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="N42" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2602,45 +2602,45 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2971648.266573341</v>
+        <v>2979358.454383721</v>
       </c>
       <c r="C43" t="n">
-        <v>2788095.007020894</v>
+        <v>3111965.068567277</v>
       </c>
       <c r="D43" t="n">
-        <v>2789010.286743425</v>
+        <v>3133238.431248103</v>
       </c>
       <c r="E43" t="n">
-        <v>3191984.34764866</v>
+        <v>3437645.25035827</v>
       </c>
       <c r="F43" t="n">
-        <v>3021248.822259534</v>
+        <v>3251649.062179566</v>
       </c>
       <c r="G43" t="n">
-        <v>2837695.562707087</v>
+        <v>2533850.558262981</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>17466652</v>
       </c>
       <c r="J43" t="n">
-        <v>17599682.29295294</v>
+        <v>18447706.82499992</v>
       </c>
       <c r="K43" t="n">
-        <v>133030.2929529399</v>
+        <v>400542.5571111111</v>
       </c>
       <c r="L43" t="n">
-        <v>400195.25</v>
+        <v>276712.84</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="N43" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43" t="n">
         <v>1</v>
@@ -2653,45 +2653,45 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5720560.485578157</v>
+        <v>5330098.287622025</v>
       </c>
       <c r="C44" t="n">
-        <v>5769067.752708841</v>
+        <v>6200666.535511831</v>
       </c>
       <c r="D44" t="n">
-        <v>5817575.019839462</v>
+        <v>5755875.586279802</v>
       </c>
       <c r="E44" t="n">
-        <v>5866082.286969889</v>
+        <v>5538947.731818956</v>
       </c>
       <c r="F44" t="n">
-        <v>5914589.554100182</v>
+        <v>6386465.163355839</v>
       </c>
       <c r="G44" t="n">
-        <v>5963096.821230359</v>
+        <v>4863762.657615066</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>34895356</v>
       </c>
       <c r="J44" t="n">
-        <v>35050971.92042689</v>
+        <v>34075815.96220352</v>
       </c>
       <c r="K44" t="n">
-        <v>155615.9204268903</v>
+        <v>27684117.27999999</v>
       </c>
       <c r="L44" t="n">
-        <v>652808.29</v>
+        <v>576248.28</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44" t="n">
         <v>1</v>
@@ -2704,48 +2704,48 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2692175.739098758</v>
+        <v>3213232.429272114</v>
       </c>
       <c r="C45" t="n">
-        <v>2697848.175129086</v>
+        <v>3676700.563153734</v>
       </c>
       <c r="D45" t="n">
-        <v>2703268.593352012</v>
+        <v>3302919.421586069</v>
       </c>
       <c r="E45" t="n">
-        <v>2708445.737462059</v>
+        <v>3392542.306420992</v>
       </c>
       <c r="F45" t="n">
-        <v>2713388.561634354</v>
+        <v>3442357.544714489</v>
       </c>
       <c r="G45" t="n">
-        <v>2718106.124575287</v>
+        <v>2887897.560406467</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>17029503</v>
       </c>
       <c r="J45" t="n">
-        <v>16233232.93125156</v>
+        <v>19915649.82555386</v>
       </c>
       <c r="K45" t="n">
-        <v>796270.0687484443</v>
+        <v>538346.5186666666</v>
       </c>
       <c r="L45" t="n">
-        <v>545787.97</v>
+        <v>492219</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="N45" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2755,45 +2755,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2309685.262416713</v>
+        <v>2167926.163536673</v>
       </c>
       <c r="C46" t="n">
-        <v>2495712.395464859</v>
+        <v>2240715.301875318</v>
       </c>
       <c r="D46" t="n">
-        <v>2655487.60145149</v>
+        <v>2515074.72131949</v>
       </c>
       <c r="E46" t="n">
-        <v>2074249.249977998</v>
+        <v>1903988.941593836</v>
       </c>
       <c r="F46" t="n">
-        <v>2320345.360787895</v>
+        <v>2176669.950501405</v>
       </c>
       <c r="G46" t="n">
-        <v>2012727.495002232</v>
+        <v>1760377.761301564</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_111</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>13863642</v>
       </c>
       <c r="J46" t="n">
-        <v>13868207.36510119</v>
+        <v>12764752.84012829</v>
       </c>
       <c r="K46" t="n">
-        <v>4565.365101186559</v>
+        <v>2344779.171111112</v>
       </c>
       <c r="L46" t="n">
-        <v>589768.5600000001</v>
+        <v>553773.8199999999</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -2806,48 +2806,48 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2185982.540079355</v>
+        <v>1625144.738386652</v>
       </c>
       <c r="C47" t="n">
-        <v>2160226.54124597</v>
+        <v>1652231.873252248</v>
       </c>
       <c r="D47" t="n">
-        <v>2272564.477718183</v>
+        <v>1721054.240711819</v>
       </c>
       <c r="E47" t="n">
-        <v>1831136.773859092</v>
+        <v>1595470.769636713</v>
       </c>
       <c r="F47" t="n">
-        <v>1766931.887067843</v>
+        <v>1604325.417083862</v>
       </c>
       <c r="G47" t="n">
-        <v>1851341.819779471</v>
+        <v>1667125.984348134</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>12319777</v>
       </c>
       <c r="J47" t="n">
-        <v>12068184.03974991</v>
+        <v>9865353.023419429</v>
       </c>
       <c r="K47" t="n">
-        <v>251592.9602500871</v>
+        <v>67594289857676.14</v>
       </c>
       <c r="L47" t="n">
-        <v>279975.52</v>
+        <v>409070.66</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="N47" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2857,48 +2857,48 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4611045.000230066</v>
+        <v>5306258.914533463</v>
       </c>
       <c r="C48" t="n">
-        <v>4602983.981453337</v>
+        <v>5549198.319515185</v>
       </c>
       <c r="D48" t="n">
-        <v>4594893.054878041</v>
+        <v>5779123.643732297</v>
       </c>
       <c r="E48" t="n">
-        <v>4586808.930885583</v>
+        <v>5545612.919125698</v>
       </c>
       <c r="F48" t="n">
-        <v>4578798.215529755</v>
+        <v>5752306.618426914</v>
       </c>
       <c r="G48" t="n">
-        <v>4570862.76763171</v>
+        <v>5429491.617857958</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_2</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>28780675</v>
       </c>
       <c r="J48" t="n">
-        <v>27545391.95060849</v>
+        <v>33361992.03319152</v>
       </c>
       <c r="K48" t="n">
-        <v>1235283.049391508</v>
+        <v>1131688.645555556</v>
       </c>
       <c r="L48" t="n">
-        <v>714864.74</v>
+        <v>982621.29</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="N48" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2908,45 +2908,45 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>690695.0528315488</v>
+        <v>637748.9866268035</v>
       </c>
       <c r="C49" t="n">
-        <v>637930.2055810471</v>
+        <v>718756.8695301999</v>
       </c>
       <c r="D49" t="n">
-        <v>641467.7940815747</v>
+        <v>596975.2485864005</v>
       </c>
       <c r="E49" t="n">
-        <v>726420.1243510493</v>
+        <v>620009.6336699089</v>
       </c>
       <c r="F49" t="n">
-        <v>751570.5426008926</v>
+        <v>657074.7717246286</v>
       </c>
       <c r="G49" t="n">
-        <v>698805.6953503909</v>
+        <v>581255.6587843578</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>5241467</v>
       </c>
       <c r="J49" t="n">
-        <v>4146889.414796503</v>
+        <v>3811821.168922299</v>
       </c>
       <c r="K49" t="n">
-        <v>1094577.585203497</v>
+        <v>1.460082903728889e+187</v>
       </c>
       <c r="L49" t="n">
-        <v>230402.32</v>
+        <v>241223.3</v>
       </c>
       <c r="M49" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="N49" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -2959,45 +2959,45 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2862850.919580979</v>
+        <v>2913865.581972533</v>
       </c>
       <c r="C50" t="n">
-        <v>2767042.828757433</v>
+        <v>2922673.898757212</v>
       </c>
       <c r="D50" t="n">
-        <v>2781862.106182748</v>
+        <v>2944448.020636344</v>
       </c>
       <c r="E50" t="n">
-        <v>2850699.967128216</v>
+        <v>3058118.974201833</v>
       </c>
       <c r="F50" t="n">
-        <v>2961976.521974313</v>
+        <v>3205847.044144234</v>
       </c>
       <c r="G50" t="n">
-        <v>2766721.952642638</v>
+        <v>3049826.363684973</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>17075844</v>
       </c>
       <c r="J50" t="n">
-        <v>16991154.29626633</v>
+        <v>18094779.88339713</v>
       </c>
       <c r="K50" t="n">
-        <v>84689.70373367146</v>
+        <v>85624061053.47479</v>
       </c>
       <c r="L50" t="n">
-        <v>188739.1</v>
+        <v>262059.34</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50" t="n">
         <v>1</v>
@@ -3010,39 +3010,39 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3158212.392701149</v>
+        <v>2976782.215247194</v>
       </c>
       <c r="C51" t="n">
-        <v>3457571.812322769</v>
+        <v>3154420.576637708</v>
       </c>
       <c r="D51" t="n">
-        <v>3339727.3582119</v>
+        <v>3225006.926934232</v>
       </c>
       <c r="E51" t="n">
-        <v>3382942.733979435</v>
+        <v>3309807.762580813</v>
       </c>
       <c r="F51" t="n">
-        <v>3224065.633210831</v>
+        <v>3342325.797292012</v>
       </c>
       <c r="G51" t="n">
-        <v>2841010.34345901</v>
+        <v>3271451.608232849</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_211</t>
+          <t>Прогнозы_ETS_CA12</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>19740218</v>
       </c>
       <c r="J51" t="n">
-        <v>19403530.27388509</v>
+        <v>19279794.88692481</v>
       </c>
       <c r="K51" t="n">
-        <v>336687.7261149064</v>
+        <v>3890070295391.453</v>
       </c>
       <c r="L51" t="n">
-        <v>345079.21</v>
+        <v>422940.91</v>
       </c>
       <c r="M51" t="n">
         <v>0.02</v>
